--- a/server/data/supplier/modifiedSupplier.xlsx
+++ b/server/data/supplier/modifiedSupplier.xlsx
@@ -397,112 +397,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L449"/>
+  <dimension ref="A1:O449"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Display Name As</v>
+        <v>Supplier</v>
       </c>
       <c r="B1" t="str">
-        <v>Currency Code</v>
+        <v>Phone Numbers</v>
       </c>
       <c r="C1" t="str">
-        <v>Billing Address Line 1</v>
+        <v>Address</v>
       </c>
       <c r="D1" t="str">
-        <v>Billing Address Line 2</v>
+        <v>Phone</v>
       </c>
       <c r="E1" t="str">
-        <v>Billing Address City</v>
+        <v>ABN</v>
       </c>
       <c r="F1" t="str">
-        <v>Billing Address Country</v>
+        <v>Street</v>
       </c>
       <c r="G1" t="str">
-        <v>Phone</v>
+        <v>City</v>
       </c>
       <c r="H1" t="str">
+        <v>State/Territory</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Postcode</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Country</v>
+      </c>
+      <c r="K1" t="str">
         <v>Email</v>
       </c>
-      <c r="I1" t="str">
+      <c r="L1" t="str">
         <v>Website</v>
       </c>
-      <c r="J1" t="str">
-        <v>Account No</v>
-      </c>
-      <c r="K1" t="str">
+      <c r="M1" t="str">
+        <v>Account No.</v>
+      </c>
+      <c r="N1" t="str">
         <v>Other</v>
       </c>
-      <c r="L1" t="str">
-        <v>Company</v>
+      <c r="O1" t="str">
+        <v>Company Name</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
         <v>101ELECTRICS</v>
       </c>
-      <c r="B2" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
         <v>1UP CARGO</v>
       </c>
-      <c r="B3" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4">
         <v>259</v>
       </c>
-      <c r="B4" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" t="str">
         <v>5WAYS FOODSERVICE PTY LTD</v>
       </c>
       <c r="B5" t="str">
-        <v>AUD</v>
+        <v>Phone: 395545535</v>
       </c>
       <c r="C5" t="str" xml:space="preserve">
         <v xml:space="preserve">15-17 QUALITY DRIVE_x000d_
 VIC DANDENONG 3175_x000d_
 Australia</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5">
+        <v>395545535</v>
+      </c>
+      <c r="E5" t="str">
+        <v>55096671920</v>
+      </c>
+      <c r="F5" t="str">
         <v>15-17 QUALITY DRIVE</v>
       </c>
-      <c r="E5" t="str">
+      <c r="G5" t="str">
         <v>VIC</v>
       </c>
-      <c r="F5" t="str">
+      <c r="H5" t="str">
+        <v>DANDENONG</v>
+      </c>
+      <c r="I5" t="str">
+        <v>3175</v>
+      </c>
+      <c r="J5" t="str">
         <v>Australia</v>
-      </c>
-      <c r="G5" t="str">
-        <v>Phone: 395545535</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
         <v>A.M.HAEMEK SHACKS</v>
       </c>
-      <c r="B6" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="7" xml:space="preserve">
       <c r="A7" t="str">
         <v>ABADI YOSEF &amp; SIMCHA LTD</v>
-      </c>
-      <c r="B7" t="str">
-        <v>AUD</v>
       </c>
       <c r="C7" t="str" xml:space="preserve">
         <v xml:space="preserve">Abadi Yosef &amp; Simcha Ltd_x000d__x000d_
@@ -510,14 +513,17 @@
 JERUSALEM 9147001_x000d_
 IL</v>
       </c>
-      <c r="D7" t="str" xml:space="preserve">
+      <c r="F7" t="str" xml:space="preserve">
         <v xml:space="preserve">Abadi Yosef &amp; Simcha Ltd_x000d__x000d_
 10 TOZERET ST</v>
       </c>
-      <c r="E7" t="str">
+      <c r="G7" t="str">
         <v>JERUSALEM</v>
       </c>
-      <c r="F7" t="str">
+      <c r="I7" t="str">
+        <v>9147001</v>
+      </c>
+      <c r="J7" t="str">
         <v>IL</v>
       </c>
     </row>
@@ -525,64 +531,43 @@
       <c r="A8" t="str">
         <v>ABSOLUTE STORAGE SYSTEMS PTY LDT</v>
       </c>
-      <c r="B8" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
         <v>ADMIRAL</v>
       </c>
-      <c r="B9" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
         <v>ADMIRAL FOODS</v>
       </c>
-      <c r="B10" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
         <v>ADMIRAL FOODS PTY</v>
       </c>
-      <c r="B11" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
         <v>ADS REFRIDGERATION</v>
       </c>
-      <c r="B12" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
         <v>ADSONE GROUP</v>
       </c>
-      <c r="B13" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
         <v>AFFINITY PRINT</v>
       </c>
-      <c r="B14" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="15" xml:space="preserve">
       <c r="A15" t="str">
         <v>AGAS YAROK TRADING AND SERVICES LTD</v>
       </c>
       <c r="B15" t="str">
-        <v>AUD</v>
+        <v>Phone: ????</v>
       </c>
       <c r="C15" t="str" xml:space="preserve">
         <v xml:space="preserve">NAZARETH P.O.B 50559_x000d_
@@ -590,18 +575,24 @@
 Israel</v>
       </c>
       <c r="D15" t="str">
+        <v>????</v>
+      </c>
+      <c r="E15" t="str">
+        <v>17131025602</v>
+      </c>
+      <c r="F15" t="str">
         <v>NAZARETH P.O.B 50559</v>
       </c>
-      <c r="F15" t="str">
+      <c r="I15" t="str">
+        <v>16000</v>
+      </c>
+      <c r="J15" t="str">
         <v>Israel</v>
       </c>
-      <c r="G15" t="str">
-        <v>Phone: ????</v>
-      </c>
-      <c r="H15" t="str">
+      <c r="K15" t="str">
         <v>info@alarz.co.il</v>
       </c>
-      <c r="I15" t="str">
+      <c r="L15" t="str">
         <v>http://www.alarz.co.il</v>
       </c>
     </row>
@@ -610,7 +601,7 @@
         <v>AGRO FOODS PL</v>
       </c>
       <c r="B16" t="str">
-        <v>AUD</v>
+        <v>Phone: 03 9994 6944</v>
       </c>
       <c r="C16" t="str" xml:space="preserve">
         <v xml:space="preserve">AGRO FOODS PL_x000d__x000d_
@@ -618,20 +609,26 @@
 TRUGANINA Victoria 3029_x000d_
 AU</v>
       </c>
-      <c r="D16" t="str" xml:space="preserve">
+      <c r="D16" t="str">
+        <v>03 9994 6944</v>
+      </c>
+      <c r="F16" t="str" xml:space="preserve">
         <v xml:space="preserve">AGRO FOODS PL_x000d__x000d_
 41 SUNLINE DRIVE</v>
       </c>
-      <c r="E16" t="str">
+      <c r="G16" t="str">
         <v>TRUGANINA</v>
       </c>
-      <c r="F16" t="str">
+      <c r="H16" t="str">
+        <v>Victoria</v>
+      </c>
+      <c r="I16" t="str">
+        <v>3029</v>
+      </c>
+      <c r="J16" t="str">
         <v>AU</v>
       </c>
-      <c r="G16" t="str">
-        <v>Phone: 03 9994 6944</v>
-      </c>
-      <c r="H16" t="str">
+      <c r="K16" t="str">
         <v>info@agrofoods.com.au</v>
       </c>
     </row>
@@ -639,18 +636,12 @@
       <c r="A17" t="str">
         <v>ALDI</v>
       </c>
-      <c r="B17" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
         <v>ALEX BROFMAN</v>
       </c>
-      <c r="B18" t="str">
-        <v>AUD</v>
-      </c>
-      <c r="H18" t="str">
+      <c r="K18" t="str">
         <v>abro2175@bigpondnet.au</v>
       </c>
     </row>
@@ -658,10 +649,7 @@
       <c r="A19" t="str">
         <v>ALEX GANSKY</v>
       </c>
-      <c r="B19" t="str">
-        <v>AUD</v>
-      </c>
-      <c r="H19" t="str">
+      <c r="K19" t="str">
         <v>europlus@wwe.com.au</v>
       </c>
     </row>
@@ -669,37 +657,25 @@
       <c r="A20" t="str">
         <v>ALEX KLUGER PTY LTD</v>
       </c>
-      <c r="B20" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
         <v>ALEXANDRE SAVENKOV</v>
       </c>
-      <c r="B21" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
         <v>ALINTAENERGY</v>
       </c>
-      <c r="B22" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
         <v>ALL-WAYS</v>
       </c>
-      <c r="B23" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C23" t="str">
         <v>ISRAEL</v>
       </c>
-      <c r="D23" t="str">
+      <c r="F23" t="str">
         <v>ISRAEL</v>
       </c>
     </row>
@@ -707,27 +683,24 @@
       <c r="A24" t="str">
         <v>ALL4WHEELS</v>
       </c>
-      <c r="B24" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
         <v>ALLCARGO LOGISTIC SERVICES</v>
       </c>
       <c r="B25" t="str">
-        <v>AUD</v>
+        <v>Phone: ??2555200</v>
       </c>
       <c r="C25" t="str">
         <v>Israel</v>
       </c>
-      <c r="F25" t="str">
+      <c r="D25" t="str">
+        <v>??2555200</v>
+      </c>
+      <c r="J25" t="str">
         <v>Israel</v>
       </c>
-      <c r="G25" t="str">
-        <v>Phone: ??2555200</v>
-      </c>
-      <c r="H25" t="str">
+      <c r="K25" t="str">
         <v>info@allcargo.co.il</v>
       </c>
     </row>
@@ -735,16 +708,14 @@
       <c r="A26" t="str">
         <v>ALLGEN FOODS</v>
       </c>
-      <c r="B26" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="27" xml:space="preserve">
       <c r="A27" t="str">
         <v>ALPINE TROUT FARM PTY LTD</v>
       </c>
-      <c r="B27" t="str">
-        <v>AUD</v>
+      <c r="B27" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone: (03) 5628 9584_x000d_
+Fax: (03) 5628 9644</v>
       </c>
       <c r="C27" t="str" xml:space="preserve">
         <v xml:space="preserve">115 Mt Baw Baw Tourist Rd_x000d_
@@ -752,22 +723,30 @@
 Australia</v>
       </c>
       <c r="D27" t="str">
+        <v>(03) 5628 9584</v>
+      </c>
+      <c r="E27" t="str">
+        <v>40564370464</v>
+      </c>
+      <c r="F27" t="str">
         <v>115 Mt Baw Baw Tourist Rd</v>
       </c>
-      <c r="E27" t="str">
+      <c r="G27" t="str">
         <v>Vic</v>
       </c>
-      <c r="F27" t="str">
+      <c r="H27" t="str">
+        <v>Noojee</v>
+      </c>
+      <c r="I27" t="str">
+        <v>3833</v>
+      </c>
+      <c r="J27" t="str">
         <v>Australia</v>
       </c>
-      <c r="G27" t="str" xml:space="preserve">
-        <v xml:space="preserve">Phone: (03) 5628 9584_x000d_
-Fax: (03) 5628 9644</v>
-      </c>
-      <c r="H27" t="str">
+      <c r="K27" t="str">
         <v>info@alpinetroutfarm.com.au</v>
       </c>
-      <c r="J27" t="str">
+      <c r="M27" t="str">
         <v>633-000 149471435</v>
       </c>
     </row>
@@ -776,7 +755,7 @@
         <v>ALPINE VALLEY FLOUR MILL PTY.LTD</v>
       </c>
       <c r="B28" t="str">
-        <v>AUD</v>
+        <v>Phone: 1300 519 117</v>
       </c>
       <c r="C28" t="str" xml:space="preserve">
         <v xml:space="preserve">46 LATITUDE BLVD_x000d__x000d_
@@ -784,23 +763,32 @@
 VIC THOMASTOWN. 3074_x000d_
 Australia</v>
       </c>
-      <c r="D28" t="str" xml:space="preserve">
+      <c r="D28" t="str">
+        <v>1300 519 117</v>
+      </c>
+      <c r="E28" t="str">
+        <v>40151521774</v>
+      </c>
+      <c r="F28" t="str" xml:space="preserve">
         <v xml:space="preserve">46 LATITUDE BLVD_x000d__x000d_
 20-24 Dennis St Campbellfield VIC</v>
       </c>
-      <c r="E28" t="str">
+      <c r="G28" t="str">
         <v>VIC</v>
       </c>
-      <c r="F28" t="str">
+      <c r="H28" t="str">
+        <v>THOMASTOWN.</v>
+      </c>
+      <c r="I28" t="str">
+        <v>3074</v>
+      </c>
+      <c r="J28" t="str">
         <v>Australia</v>
       </c>
-      <c r="G28" t="str">
-        <v>Phone: 1300 519 117</v>
-      </c>
-      <c r="H28" t="str">
+      <c r="K28" t="str">
         <v>info@alpinevalleyflourmill.com</v>
       </c>
-      <c r="J28" t="str">
+      <c r="M28" t="str">
         <v>013-243 183504948</v>
       </c>
     </row>
@@ -808,39 +796,42 @@
       <c r="A29" t="str">
         <v>AMERICAN E CD</v>
       </c>
-      <c r="B29" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
         <v>AMEX</v>
       </c>
-      <c r="B30" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="31" xml:space="preserve">
       <c r="A31" t="str">
         <v>ANDES MILLS</v>
       </c>
       <c r="B31" t="str">
-        <v>AUD</v>
+        <v>Phone: 430577515</v>
       </c>
       <c r="C31" t="str" xml:space="preserve">
         <v xml:space="preserve">PO BOX 282_x000d_
 QLD TOOWONG 4066</v>
       </c>
-      <c r="D31" t="str">
+      <c r="D31">
+        <v>430577515</v>
+      </c>
+      <c r="E31" t="str">
+        <v>20161859310</v>
+      </c>
+      <c r="F31" t="str">
         <v>PO BOX 282</v>
       </c>
-      <c r="E31" t="str">
+      <c r="G31" t="str">
         <v>QLD</v>
       </c>
-      <c r="G31" t="str">
-        <v>Phone: 430577515</v>
-      </c>
       <c r="H31" t="str">
+        <v>TOOWONG</v>
+      </c>
+      <c r="I31" t="str">
+        <v>4066</v>
+      </c>
+      <c r="K31" t="str">
         <v>fe.mendoza@andesmills.com.au</v>
       </c>
     </row>
@@ -849,83 +840,92 @@
         <v>ANL-CMA-CGM GROUP AGENCIES</v>
       </c>
       <c r="B32" t="str">
-        <v>AUD</v>
+        <v>Phone: 1800207033</v>
       </c>
       <c r="C32" t="str" xml:space="preserve">
         <v xml:space="preserve">10 LEVEL, 30 CONVENTION CENTRE PLACE_x000d_
 VIC SOUTH WHARF 3006_x000d_
 Australia</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D32">
+        <v>1800207033</v>
+      </c>
+      <c r="E32" t="str">
+        <v>53118314257</v>
+      </c>
+      <c r="F32" t="str">
         <v>10 LEVEL, 30 CONVENTION CENTRE PLACE</v>
       </c>
-      <c r="E32" t="str">
+      <c r="G32" t="str">
         <v>VIC</v>
       </c>
-      <c r="F32" t="str">
+      <c r="H32" t="str">
+        <v>SOUTH WHARF</v>
+      </c>
+      <c r="I32" t="str">
+        <v>3006</v>
+      </c>
+      <c r="J32" t="str">
         <v>Australia</v>
-      </c>
-      <c r="G32" t="str">
-        <v>Phone: 1800207033</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
         <v>ANSON</v>
       </c>
-      <c r="B33" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
         <v>APPLE SERVICE</v>
       </c>
-      <c r="B34" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
         <v>APR</v>
       </c>
-      <c r="B35" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="36" xml:space="preserve">
       <c r="A36" t="str">
         <v>AQUATIC SOLUTIONS AUST. T/A YARRA VALLEY SALMON PL</v>
       </c>
-      <c r="B36" t="str">
-        <v>AUD</v>
+      <c r="B36" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone: 357732596_x000d_
+Fax: 357732477_x000d_
+Mobile: 425310331</v>
       </c>
       <c r="C36" t="str" xml:space="preserve">
         <v xml:space="preserve">399 RUBICON ROAD_x000d_
 VIC THORNTON 3712_x000d_
 AUS</v>
       </c>
-      <c r="D36" t="str">
+      <c r="D36">
+        <v>357732596</v>
+      </c>
+      <c r="E36" t="str">
+        <v>60113711863</v>
+      </c>
+      <c r="F36" t="str">
         <v>399 RUBICON ROAD</v>
       </c>
-      <c r="E36" t="str">
+      <c r="G36" t="str">
         <v>VIC</v>
       </c>
-      <c r="F36" t="str">
+      <c r="H36" t="str">
+        <v>THORNTON</v>
+      </c>
+      <c r="I36" t="str">
+        <v>3712</v>
+      </c>
+      <c r="J36" t="str">
         <v>AUS</v>
       </c>
-      <c r="G36" t="str" xml:space="preserve">
-        <v xml:space="preserve">Phone: 357732596_x000d_
-Fax: 357732477_x000d_
-Mobile: 425310331</v>
-      </c>
-      <c r="H36" t="str">
+      <c r="K36" t="str">
         <v>yvs@virtual.net.au</v>
       </c>
-      <c r="I36" t="str">
+      <c r="L36" t="str">
         <v>http://www.yarravalleysalmon.com.au</v>
       </c>
-      <c r="K36" t="str">
+      <c r="N36" t="str">
         <v>NICK GORMAN</v>
       </c>
     </row>
@@ -933,10 +933,7 @@
       <c r="A37" t="str">
         <v>ARAGUI PTY.LTD</v>
       </c>
-      <c r="B37" t="str">
-        <v>AUD</v>
-      </c>
-      <c r="K37" t="str">
+      <c r="N37" t="str">
         <v>irakly</v>
       </c>
     </row>
@@ -944,70 +941,73 @@
       <c r="A38" t="str">
         <v>AREA SAFE</v>
       </c>
-      <c r="B38" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
         <v>ARIGA PL</v>
       </c>
-      <c r="B39" t="str">
-        <v>AUD</v>
+      <c r="E39" t="str">
+        <v>19628876237</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
         <v>ARIMAR INTERNATIONAL</v>
       </c>
-      <c r="B40" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="41" xml:space="preserve">
       <c r="A41" t="str">
         <v>AROMA BAKERY AND CATERING</v>
       </c>
-      <c r="B41" t="str">
-        <v>AUD</v>
+      <c r="B41" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone: 90481951_x000d_
+Mobile: 90485675</v>
       </c>
       <c r="C41" t="str" xml:space="preserve">
         <v xml:space="preserve">20/80 MILLS ROAD_x000d_
 VIC BRAESIDE</v>
       </c>
-      <c r="D41" t="str">
+      <c r="D41">
+        <v>90481951</v>
+      </c>
+      <c r="E41" t="str">
+        <v>21543299189</v>
+      </c>
+      <c r="F41" t="str">
         <v>20/80 MILLS ROAD</v>
       </c>
-      <c r="E41" t="str">
+      <c r="G41" t="str">
         <v>VIC</v>
       </c>
-      <c r="G41" t="str" xml:space="preserve">
-        <v xml:space="preserve">Phone: 90481951_x000d_
-Mobile: 90485675</v>
+      <c r="H41" t="str">
+        <v>BRAESIDE</v>
       </c>
     </row>
     <row r="42" xml:space="preserve">
       <c r="A42" t="str">
         <v>AROMAPRODUCT</v>
-      </c>
-      <c r="B42" t="str">
-        <v>AUD</v>
       </c>
       <c r="C42" t="str" xml:space="preserve">
         <v xml:space="preserve">17 GURAMISHVILI AVE_x000d_
 TBILISI_x000d_
 Georgia</v>
       </c>
-      <c r="D42" t="str">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="str">
         <v>17 GURAMISHVILI AVE</v>
       </c>
-      <c r="F42" t="str">
+      <c r="H42" t="str">
+        <v>TBILISI</v>
+      </c>
+      <c r="J42" t="str">
         <v>Georgia</v>
       </c>
-      <c r="H42" t="str">
+      <c r="K42" t="str">
         <v>info@georgiasnatural.com</v>
       </c>
-      <c r="I42" t="str">
+      <c r="L42" t="str">
         <v>https://georgiasnatural.com/</v>
       </c>
     </row>
@@ -1015,50 +1015,35 @@
       <c r="A43" t="str">
         <v>ARSENAL</v>
       </c>
-      <c r="B43" t="str">
-        <v>AUD</v>
+      <c r="E43" t="str">
+        <v>11111111111</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
         <v>ASIC</v>
       </c>
-      <c r="B44" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
         <v>ATO CIA</v>
       </c>
-      <c r="B45" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
         <v>AUDIO VISUAL CREATIONS</v>
       </c>
-      <c r="B46" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
         <v>AUINKSALE</v>
       </c>
-      <c r="B47" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
         <v>AUR</v>
       </c>
-      <c r="B48" t="str">
-        <v>AUD</v>
-      </c>
-      <c r="L48" t="str">
+      <c r="O48" t="str">
         <v>AUSTRALIAN UNITED RETAILERS LTD</v>
       </c>
     </row>
@@ -1066,37 +1051,40 @@
       <c r="A49" t="str">
         <v>AURIC TEK</v>
       </c>
-      <c r="B49" t="str">
-        <v>AUD</v>
+      <c r="E49" t="str">
+        <v>48456260211</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
         <v>AURIZON</v>
       </c>
-      <c r="B50" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="51" xml:space="preserve">
       <c r="A51" t="str">
         <v>AUSFRESH PTY LTD</v>
-      </c>
-      <c r="B51" t="str">
-        <v>AUD</v>
       </c>
       <c r="C51" t="str" xml:space="preserve">
         <v xml:space="preserve">P.O BOX 176_x000d_
 VIC GLENROY 3046_x000d_
 Australia</v>
       </c>
-      <c r="D51" t="str">
+      <c r="E51" t="str">
+        <v>20096285835</v>
+      </c>
+      <c r="F51" t="str">
         <v>P.O BOX 176</v>
       </c>
-      <c r="E51" t="str">
+      <c r="G51" t="str">
         <v>VIC</v>
       </c>
-      <c r="F51" t="str">
+      <c r="H51" t="str">
+        <v>GLENROY</v>
+      </c>
+      <c r="I51" t="str">
+        <v>3046</v>
+      </c>
+      <c r="J51" t="str">
         <v>Australia</v>
       </c>
     </row>
@@ -1104,24 +1092,18 @@
       <c r="A52" t="str">
         <v>AUSSIE SERVICE CENTRE PTY.LTD</v>
       </c>
-      <c r="B52" t="str">
-        <v>AUD</v>
+      <c r="E52" t="str">
+        <v>72177518242</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
         <v>AUST POST</v>
       </c>
-      <c r="B53" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="54" xml:space="preserve">
       <c r="A54" t="str">
         <v>AUSTGROW BEVERAGES PTY LTD</v>
-      </c>
-      <c r="B54" t="str">
-        <v>AUD</v>
       </c>
       <c r="C54" t="str" xml:space="preserve">
         <v xml:space="preserve">AUSTGROW BEVERAGES PTY LTD_x000d__x000d_
@@ -1129,14 +1111,20 @@
 KEYSBOROUGH Victoria 3173_x000d_
 AU</v>
       </c>
-      <c r="D54" t="str" xml:space="preserve">
+      <c r="F54" t="str" xml:space="preserve">
         <v xml:space="preserve">AUSTGROW BEVERAGES PTY LTD_x000d__x000d_
 1/31 KEYSBOROUGH CL</v>
       </c>
-      <c r="E54" t="str">
+      <c r="G54" t="str">
         <v>KEYSBOROUGH</v>
       </c>
-      <c r="F54" t="str">
+      <c r="H54" t="str">
+        <v>Victoria</v>
+      </c>
+      <c r="I54" t="str">
+        <v>3173</v>
+      </c>
+      <c r="J54" t="str">
         <v>AU</v>
       </c>
     </row>
@@ -1144,51 +1132,39 @@
       <c r="A55" t="str">
         <v>AUSTRALIAN TAXATION OFFICE</v>
       </c>
-      <c r="B55" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
         <v>AUSTRALIAN UNITED RETAILERS</v>
       </c>
-      <c r="B56" t="str">
-        <v>AUD</v>
+      <c r="E56" t="str">
+        <v>93077879782</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
         <v>AUTOPLUS</v>
       </c>
-      <c r="B57" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
         <v>AUZ COUNTRY</v>
       </c>
-      <c r="B58" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
         <v>AWS / ABDULLA WASEF &amp; SONS</v>
       </c>
-      <c r="B59" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C59" t="str">
         <v>Israel</v>
       </c>
-      <c r="F59" t="str">
+      <c r="J59" t="str">
         <v>Israel</v>
       </c>
-      <c r="H59" t="str">
+      <c r="K59" t="str">
         <v>harel3030@gmail.com</v>
       </c>
-      <c r="K59" t="str">
+      <c r="N59" t="str">
         <v>Harel</v>
       </c>
     </row>
@@ -1196,66 +1172,63 @@
       <c r="A60" t="str">
         <v>B&amp;R STORAGE</v>
       </c>
-      <c r="B60" t="str">
-        <v>AUD</v>
+      <c r="E60" t="str">
+        <v>38102366030</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
         <v>BALKAN LLOYD LIMITED</v>
       </c>
-      <c r="B61" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
         <v>BANK FEES</v>
       </c>
-      <c r="B62" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
         <v>BANSARD INTERNATIONAL</v>
       </c>
-      <c r="B63" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
         <v>BAS</v>
       </c>
-      <c r="B64" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="65" xml:space="preserve">
       <c r="A65" t="str">
         <v>BASILUR AUSTRALIA PTY.LTD</v>
       </c>
       <c r="B65" t="str">
-        <v>AUD</v>
+        <v>Phone: 414750951</v>
       </c>
       <c r="C65" t="str" xml:space="preserve">
         <v xml:space="preserve">NSW WATTLE GROVE 2173_x000d_
 AUS</v>
       </c>
+      <c r="D65">
+        <v>414750951</v>
+      </c>
       <c r="E65" t="str">
+        <v>98158863524</v>
+      </c>
+      <c r="G65" t="str">
         <v>NSW</v>
       </c>
-      <c r="F65" t="str">
+      <c r="H65" t="str">
+        <v>WATTLE GROVE</v>
+      </c>
+      <c r="I65" t="str">
+        <v>2173</v>
+      </c>
+      <c r="J65" t="str">
         <v>AUS</v>
       </c>
-      <c r="G65" t="str">
-        <v>Phone: 414750951</v>
-      </c>
-      <c r="H65" t="str">
+      <c r="K65" t="str">
         <v>dmitry@rostrade.com.au</v>
       </c>
-      <c r="K65" t="str">
+      <c r="N65" t="str">
         <v>DIMA</v>
       </c>
     </row>
@@ -1263,41 +1236,44 @@
       <c r="A66" t="str">
         <v>BATCHGEO</v>
       </c>
-      <c r="B66" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
         <v>BCR</v>
       </c>
-      <c r="B67" t="str">
-        <v>AUD</v>
+      <c r="E67" t="str">
+        <v>67000711197</v>
       </c>
     </row>
     <row r="68" xml:space="preserve">
       <c r="A68" t="str">
         <v>BEN FURLEY FLOUR MILLS T/AS BELTAVIA PTY.LTD</v>
       </c>
-      <c r="B68" t="str">
-        <v>AUD</v>
+      <c r="B68" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone: 1800684343_x000d_
+Fax: 02-68841649_x000d_
+Mobile: 1300217134</v>
       </c>
       <c r="C68" t="str" xml:space="preserve">
         <v xml:space="preserve">101-105 BRISBANE STREET_x000d_
 NSW DUBBO 2830</v>
       </c>
-      <c r="D68" t="str">
+      <c r="D68">
+        <v>1800684343</v>
+      </c>
+      <c r="F68" t="str">
         <v>101-105 BRISBANE STREET</v>
       </c>
-      <c r="E68" t="str">
+      <c r="G68" t="str">
         <v>NSW</v>
       </c>
-      <c r="G68" t="str" xml:space="preserve">
-        <v xml:space="preserve">Phone: 1800684343_x000d_
-Fax: 02-68841649_x000d_
-Mobile: 1300217134</v>
-      </c>
-      <c r="K68" t="str">
+      <c r="H68" t="str">
+        <v>DUBBO</v>
+      </c>
+      <c r="I68" t="str">
+        <v>2830</v>
+      </c>
+      <c r="N68" t="str">
         <v>MICHAEL MCDONALD</v>
       </c>
     </row>
@@ -1305,61 +1281,58 @@
       <c r="A69" t="str">
         <v>BENEDIKT IMPORTS</v>
       </c>
-      <c r="B69" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C69" t="str" xml:space="preserve">
         <v xml:space="preserve">2 KEYS ROAD_x000d_
 MOORABBIN</v>
       </c>
-      <c r="D69" t="str">
+      <c r="F69" t="str">
         <v>2 KEYS ROAD</v>
+      </c>
+      <c r="H69" t="str">
+        <v>MOORABBIN</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
         <v>BISCOTTI</v>
       </c>
-      <c r="B70" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="71" xml:space="preserve">
       <c r="A71" t="str">
         <v>BLOOMSPOON</v>
       </c>
-      <c r="B71" t="str">
-        <v>AUD</v>
+      <c r="B71" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone: 295646043_x000d_
+Fax: 295686045</v>
       </c>
       <c r="C71" t="str" xml:space="preserve">
         <v xml:space="preserve">383 PARRAMATTA ROAD_x000d_
 NSW LEICHHARDT 2040</v>
       </c>
-      <c r="D71" t="str">
+      <c r="D71">
+        <v>295646043</v>
+      </c>
+      <c r="F71" t="str">
         <v>383 PARRAMATTA ROAD</v>
       </c>
-      <c r="E71" t="str">
+      <c r="G71" t="str">
         <v>NSW</v>
       </c>
-      <c r="G71" t="str" xml:space="preserve">
-        <v xml:space="preserve">Phone: 295646043_x000d_
-Fax: 295686045</v>
+      <c r="H71" t="str">
+        <v>LEICHHARDT</v>
+      </c>
+      <c r="I71" t="str">
+        <v>2040</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
         <v>BOORAN MOTORS SALES PTY KIA</v>
       </c>
-      <c r="B72" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="73" xml:space="preserve">
       <c r="A73" t="str">
         <v>BORJOMI</v>
-      </c>
-      <c r="B73" t="str">
-        <v>AUD</v>
       </c>
       <c r="C73" t="str" xml:space="preserve">
         <v xml:space="preserve">IDS BORJOMI GEORGIA, LLC_x000d_
@@ -1367,14 +1340,17 @@
 TBILISI 0171_x000d_
 GE</v>
       </c>
-      <c r="D73" t="str" xml:space="preserve">
+      <c r="F73" t="str" xml:space="preserve">
         <v xml:space="preserve">IDS BORJOMI GEORGIA, LLC_x000d_
 10 BIDZINA KVERNADZE ST</v>
       </c>
-      <c r="E73" t="str">
+      <c r="G73" t="str">
         <v>TBILISI</v>
       </c>
-      <c r="F73" t="str">
+      <c r="I73" t="str">
+        <v>0171</v>
+      </c>
+      <c r="J73" t="str">
         <v>GE</v>
       </c>
     </row>
@@ -1382,337 +1358,259 @@
       <c r="A74" t="str">
         <v>BOXES&amp;MORE</v>
       </c>
-      <c r="B74" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
         <v>BREEZE LOGISTICS</v>
       </c>
-      <c r="B75" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
         <v>BRIGHTON  RENAULT</v>
       </c>
-      <c r="B76" t="str">
-        <v>AUD</v>
+      <c r="E76" t="str">
+        <v>93637069028</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
         <v>BUDGET RENTAL</v>
       </c>
-      <c r="B77" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
         <v>BUNNINGS</v>
       </c>
-      <c r="B78" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
         <v>CASH DEP</v>
       </c>
-      <c r="B79" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
         <v>CASH SUPPLIER</v>
       </c>
-      <c r="B80" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
         <v>CBS COMPLETEBUTCHERSUPPLIERS</v>
       </c>
-      <c r="B81" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
         <v>CC</v>
       </c>
-      <c r="B82" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
         <v>CC EXP</v>
       </c>
-      <c r="B83" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
         <v>CCT SHIPPING</v>
       </c>
-      <c r="B84" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
         <v>CENTRE COM SUNSHINE</v>
       </c>
-      <c r="B85" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
         <v>CH PALLETS</v>
       </c>
-      <c r="B86" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
         <v>CH ROBINSON</v>
       </c>
-      <c r="B87" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
         <v>CHABAD ON CARLIS NON</v>
       </c>
-      <c r="B88" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
         <v>CHADWICKFORKLIFTS</v>
       </c>
-      <c r="B89" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
         <v>CITY OF KINGSTONE</v>
       </c>
-      <c r="B90" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
         <v>CITYLINK</v>
       </c>
-      <c r="B91" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
         <v>CIVIC TRANSPORT SERVICES</v>
       </c>
-      <c r="B92" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
         <v>CLEANWAY C&amp;I</v>
       </c>
-      <c r="B93" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
         <v>CMA-CGM GROUP AGENCIES</v>
       </c>
-      <c r="B94" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
         <v>COLD EXPRESS</v>
       </c>
-      <c r="B95" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
         <v>COMET</v>
       </c>
-      <c r="B96" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
         <v>CONTAINER UNLOAD</v>
       </c>
-      <c r="B97" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
         <v>CORPORATE OFFICE SUPPLIES</v>
       </c>
-      <c r="B98" t="str">
-        <v>AUD</v>
+      <c r="E98" t="str">
+        <v>13145549113</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
         <v>COSCO SHIPPING</v>
       </c>
-      <c r="B99" t="str">
-        <v>AUD</v>
+      <c r="E99" t="str">
+        <v>29001909486</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
         <v>COSTCO</v>
       </c>
-      <c r="B100" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
         <v>COWAN DOORS</v>
       </c>
-      <c r="B101" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
         <v>COZY AUSSIE PTY LTD</v>
       </c>
-      <c r="B102" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
         <v>CPH LOCKSMITH</v>
       </c>
-      <c r="B103" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
         <v>CRABTREES REAL ESTATE</v>
       </c>
-      <c r="B104" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
         <v>D&amp;A DAILY NECESSITIES</v>
       </c>
-      <c r="B105" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="106" xml:space="preserve">
       <c r="A106" t="str">
         <v>D&amp;Y DELI &amp; GRILL</v>
       </c>
-      <c r="B106" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C106" t="str" xml:space="preserve">
         <v xml:space="preserve">Glenhuntly road_x000d_
 Glenhuntly</v>
       </c>
-      <c r="D106" t="str">
+      <c r="F106" t="str">
         <v>Glenhuntly road</v>
+      </c>
+      <c r="H106" t="str">
+        <v>Glenhuntly</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
         <v>D`COLL ENTERPRISES DOOR REPAIR</v>
       </c>
-      <c r="B107" t="str">
-        <v>AUD</v>
+      <c r="E107" t="str">
+        <v>21074102640</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
         <v>DAFF</v>
       </c>
-      <c r="B108" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="109" xml:space="preserve">
       <c r="A109" t="str">
         <v>DAGAN TRADING P/L T/AS AUSTRALIAN VEGIE GOURMET</v>
       </c>
-      <c r="B109" t="str">
-        <v>AUD</v>
+      <c r="B109" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone: 95855968_x000d_
+Fax: 85552543</v>
       </c>
       <c r="C109" t="str" xml:space="preserve">
         <v xml:space="preserve">24 TAUNTON DRIVE_x000d_
 VIC CHELTENHAM 3192_x000d_
 AUS</v>
       </c>
-      <c r="D109" t="str">
+      <c r="D109">
+        <v>95855968</v>
+      </c>
+      <c r="F109" t="str">
         <v>24 TAUNTON DRIVE</v>
       </c>
-      <c r="E109" t="str">
+      <c r="G109" t="str">
         <v>VIC</v>
       </c>
-      <c r="F109" t="str">
+      <c r="H109" t="str">
+        <v>CHELTENHAM</v>
+      </c>
+      <c r="I109" t="str">
+        <v>3192</v>
+      </c>
+      <c r="J109" t="str">
         <v>AUS</v>
-      </c>
-      <c r="G109" t="str" xml:space="preserve">
-        <v xml:space="preserve">Phone: 95855968_x000d_
-Fax: 85552543</v>
       </c>
     </row>
     <row r="110" xml:space="preserve">
       <c r="A110" t="str">
         <v>DALEX TRADING PTY LTD</v>
-      </c>
-      <c r="B110" t="str">
-        <v>AUD</v>
       </c>
       <c r="C110" t="str" xml:space="preserve">
         <v xml:space="preserve">UNIT 4 24 OCEAN STREET_x000d_
 NSW BONDI 2023_x000d_
 Australia</v>
       </c>
-      <c r="D110" t="str">
+      <c r="E110" t="str">
+        <v>12617784433</v>
+      </c>
+      <c r="F110" t="str">
         <v>UNIT 4 24 OCEAN STREET</v>
       </c>
-      <c r="E110" t="str">
+      <c r="G110" t="str">
         <v>NSW</v>
       </c>
-      <c r="F110" t="str">
+      <c r="H110" t="str">
+        <v>BONDI</v>
+      </c>
+      <c r="I110" t="str">
+        <v>2023</v>
+      </c>
+      <c r="J110" t="str">
         <v>Australia</v>
       </c>
-      <c r="H110" t="str">
+      <c r="K110" t="str">
         <v>sales@dalextrading.com</v>
       </c>
     </row>
@@ -1721,7 +1619,7 @@
         <v>DALLA COSTA ALIMENTARE S.R.L</v>
       </c>
       <c r="B111" t="str">
-        <v>AUD</v>
+        <v>Phone: +39 423 484 402</v>
       </c>
       <c r="C111" t="str" xml:space="preserve">
         <v xml:space="preserve">DALLA COSTA ALIMENTARE S.R.L_x000d__x000d_
@@ -1729,34 +1627,35 @@
 TREVISO 31023_x000d_
 IT</v>
       </c>
-      <c r="D111" t="str" xml:space="preserve">
+      <c r="D111" t="str">
+        <v>+39 423 484 402</v>
+      </c>
+      <c r="F111" t="str" xml:space="preserve">
         <v xml:space="preserve">DALLA COSTA ALIMENTARE S.R.L_x000d__x000d_
 VIA DELLA FORNACE, 131</v>
       </c>
-      <c r="E111" t="str">
+      <c r="G111" t="str">
         <v>TREVISO</v>
       </c>
-      <c r="F111" t="str">
+      <c r="I111" t="str">
+        <v>31023</v>
+      </c>
+      <c r="J111" t="str">
         <v>IT</v>
-      </c>
-      <c r="G111" t="str">
-        <v>Phone: +39 423 484 402</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
         <v>DAVIDOVITCH &amp; SONS MARKETING &amp; SALES LTD</v>
       </c>
-      <c r="B112" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="113" xml:space="preserve">
       <c r="A113" t="str">
         <v>DE JONG DATES TRADING LTD</v>
       </c>
-      <c r="B113" t="str">
-        <v>AUD</v>
+      <c r="B113" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone: +972-76-5479827_x000d_
+Fax: +972-77-4448724</v>
       </c>
       <c r="C113" t="str" xml:space="preserve">
         <v xml:space="preserve">DE JONG DATES TRADING LTD_x000d__x000d_
@@ -1764,18 +1663,20 @@
 1935200_x000d_
 IL</v>
       </c>
-      <c r="D113" t="str" xml:space="preserve">
+      <c r="D113" t="str">
+        <v>+972-76-5479827</v>
+      </c>
+      <c r="F113" t="str" xml:space="preserve">
         <v xml:space="preserve">DE JONG DATES TRADING LTD_x000d__x000d_
 Moshav Magen Shaoul 75</v>
       </c>
-      <c r="F113" t="str">
+      <c r="I113" t="str">
+        <v>1935200</v>
+      </c>
+      <c r="J113" t="str">
         <v>IL</v>
       </c>
-      <c r="G113" t="str" xml:space="preserve">
-        <v xml:space="preserve">Phone: +972-76-5479827_x000d_
-Fax: +972-77-4448724</v>
-      </c>
-      <c r="H113" t="str">
+      <c r="K113" t="str">
         <v>yonathan@dejong.co.il</v>
       </c>
     </row>
@@ -1783,85 +1684,64 @@
       <c r="A114" t="str">
         <v>DEUGRO PROJECTS</v>
       </c>
-      <c r="B114" t="str">
-        <v>AUD</v>
+      <c r="E114" t="str">
+        <v>88092976022</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
         <v>DHA</v>
       </c>
-      <c r="B115" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
         <v>DHL</v>
       </c>
-      <c r="B116" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
         <v>DHT</v>
       </c>
-      <c r="B117" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
         <v>DIANA R</v>
       </c>
-      <c r="B118" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
         <v>DIVERSIFIED COMMUNICATION</v>
       </c>
-      <c r="B119" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
         <v>DIVERSIFIED COMMUNICATIONS</v>
       </c>
-      <c r="B120" t="str">
-        <v>AUD</v>
+      <c r="E120" t="str">
+        <v>18006002286</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
         <v>DIZAHAV PTY LTD</v>
       </c>
-      <c r="B121" t="str">
-        <v>AUD</v>
+      <c r="E121" t="str">
+        <v>27115926719</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
         <v>DNATA</v>
       </c>
-      <c r="B122" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
         <v>DR.GERARD</v>
       </c>
-      <c r="B123" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C123" t="str">
         <v>POLAND</v>
       </c>
-      <c r="F123" t="str">
+      <c r="J123" t="str">
         <v>POLAND</v>
       </c>
     </row>
@@ -1869,87 +1749,78 @@
       <c r="A124" t="str">
         <v>E&amp;A GANSKY</v>
       </c>
-      <c r="B124" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
         <v>EAST WEST ENGINEERING</v>
       </c>
-      <c r="B125" t="str">
-        <v>AUD</v>
+      <c r="E125" t="str">
+        <v>13002235332</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
         <v>EASTLINK</v>
       </c>
-      <c r="B126" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
         <v>EBM INSURANCE BROKERS</v>
       </c>
-      <c r="B127" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="128" xml:space="preserve">
       <c r="A128" t="str">
         <v>ECHO CARTONS</v>
       </c>
       <c r="B128" t="str">
-        <v>AUD</v>
+        <v>Phone: 03 95877955</v>
       </c>
       <c r="C128" t="str" xml:space="preserve">
         <v xml:space="preserve">18 INDUSTRIAL DRIVE_x000d_
 VIC BRAESIDE 3195</v>
       </c>
       <c r="D128" t="str">
+        <v>03 95877955</v>
+      </c>
+      <c r="E128" t="str">
+        <v>80159154546</v>
+      </c>
+      <c r="F128" t="str">
         <v>18 INDUSTRIAL DRIVE</v>
       </c>
-      <c r="E128" t="str">
+      <c r="G128" t="str">
         <v>VIC</v>
       </c>
-      <c r="G128" t="str">
-        <v>Phone: 03 95877955</v>
+      <c r="H128" t="str">
+        <v>BRAESIDE</v>
+      </c>
+      <c r="I128" t="str">
+        <v>3195</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
         <v>EMPLOYSURE PTY LTD</v>
       </c>
-      <c r="B129" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
         <v>EPL INTERNATIONAL</v>
       </c>
-      <c r="B130" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
         <v>ERRAND TRANSPORT SERVICES</v>
       </c>
-      <c r="B131" t="str">
-        <v>AUD</v>
+      <c r="E131" t="str">
+        <v>69069024657</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
         <v>ERSTE KAVIAR COMPANY EKC GMBH</v>
       </c>
-      <c r="B132" t="str">
-        <v>AUD</v>
-      </c>
-      <c r="H132" t="str">
+      <c r="K132" t="str">
         <v>kundenservice@erste-kaviar-company.de</v>
       </c>
     </row>
@@ -1957,53 +1828,50 @@
       <c r="A133" t="str">
         <v>EVELYN GANSKY</v>
       </c>
-      <c r="B133" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
         <v>EVERGREEN LINE</v>
       </c>
-      <c r="B134" t="str">
-        <v>AUD</v>
+      <c r="E134" t="str">
+        <v>65100692313</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
         <v>EXPOLCO TRANSPED</v>
       </c>
-      <c r="B135" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="136" xml:space="preserve">
       <c r="A136" t="str">
         <v>F MAYER IMPORTS PTY. LTD</v>
       </c>
-      <c r="B136" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C136" t="str" xml:space="preserve">
         <v xml:space="preserve">28 SALTA DRIVE_x000d_
 VIC ALTONA NORTH 3025</v>
       </c>
-      <c r="D136" t="str">
+      <c r="E136" t="str">
+        <v>51000697889</v>
+      </c>
+      <c r="F136" t="str">
         <v>28 SALTA DRIVE</v>
       </c>
-      <c r="E136" t="str">
+      <c r="G136" t="str">
         <v>VIC</v>
       </c>
       <c r="H136" t="str">
+        <v>ALTONA NORTH</v>
+      </c>
+      <c r="I136" t="str">
+        <v>3025</v>
+      </c>
+      <c r="K136" t="str">
         <v>armelb@mayers.com.au</v>
       </c>
     </row>
     <row r="137" xml:space="preserve">
       <c r="A137" t="str">
         <v>F MAYER PTY LTD</v>
-      </c>
-      <c r="B137" t="str">
-        <v>AUD</v>
       </c>
       <c r="C137" t="str" xml:space="preserve">
         <v xml:space="preserve">F MAYER PTY LTD_x000d__x000d_
@@ -2012,12 +1880,18 @@
 New South Wales 2019_x000d_
 AU</v>
       </c>
-      <c r="D137" t="str" xml:space="preserve">
+      <c r="F137" t="str" xml:space="preserve">
         <v xml:space="preserve">F MAYER PTY LTD_x000d__x000d_
 B1 2-8 Mcpherson St_x000d_
 Banksmeadow</v>
       </c>
-      <c r="F137" t="str">
+      <c r="H137" t="str">
+        <v>New South Wales</v>
+      </c>
+      <c r="I137" t="str">
+        <v>2019</v>
+      </c>
+      <c r="J137" t="str">
         <v>AU</v>
       </c>
     </row>
@@ -2025,13 +1899,10 @@
       <c r="A138" t="str">
         <v>F.LLI POLLI S.P.A.</v>
       </c>
-      <c r="B138" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C138" t="str">
         <v>Italy</v>
       </c>
-      <c r="F138" t="str">
+      <c r="J138" t="str">
         <v>Italy</v>
       </c>
     </row>
@@ -2039,75 +1910,69 @@
       <c r="A139" t="str">
         <v>FAIR MOTORS</v>
       </c>
-      <c r="B139" t="str">
-        <v>AUD</v>
+      <c r="B139" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone: 95769055_x000d_
+Fax: 95769066</v>
       </c>
       <c r="C139" t="str" xml:space="preserve">
         <v xml:space="preserve">100 MCKINNON ROAD_x000d_
 VIC MCKINNON 3204</v>
       </c>
-      <c r="D139" t="str">
+      <c r="D139">
+        <v>95769055</v>
+      </c>
+      <c r="F139" t="str">
         <v>100 MCKINNON ROAD</v>
       </c>
-      <c r="E139" t="str">
+      <c r="G139" t="str">
         <v>VIC</v>
       </c>
-      <c r="G139" t="str" xml:space="preserve">
-        <v xml:space="preserve">Phone: 95769055_x000d_
-Fax: 95769066</v>
+      <c r="H139" t="str">
+        <v>MCKINNON</v>
+      </c>
+      <c r="I139" t="str">
+        <v>3204</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
         <v>FAIRMOTORS P/L</v>
       </c>
-      <c r="B140" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
         <v>FINELINE</v>
       </c>
-      <c r="B141" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
         <v>FINES VIC</v>
       </c>
-      <c r="B142" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
         <v>FISCH CHADSTONE</v>
       </c>
-      <c r="B143" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
         <v>FISHBOWL</v>
       </c>
-      <c r="B144" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
         <v>FLEX</v>
       </c>
       <c r="B145" t="str">
-        <v>AUD</v>
-      </c>
-      <c r="G145" t="str">
         <v>Phone: 0452 257 740</v>
       </c>
-      <c r="K145" t="str">
+      <c r="D145" t="str">
+        <v>0452 257 740</v>
+      </c>
+      <c r="E145" t="str">
+        <v>89561909029</v>
+      </c>
+      <c r="N145" t="str">
         <v>JULIE</v>
       </c>
     </row>
@@ -2115,67 +1980,64 @@
       <c r="A146" t="str">
         <v>FLIPSNACK</v>
       </c>
-      <c r="B146" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
         <v>FOODLEGAL PL</v>
       </c>
-      <c r="B147" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
         <v>FORTIGO</v>
       </c>
-      <c r="B148" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
         <v>FREIGT ASSIST</v>
       </c>
-      <c r="B149" t="str">
-        <v>AUD</v>
+      <c r="E149" t="str">
+        <v>77152729283</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
         <v>FRESA</v>
       </c>
-      <c r="B150" t="str">
-        <v>AUD</v>
+      <c r="E150" t="str">
+        <v>11111111111</v>
       </c>
     </row>
     <row r="151" xml:space="preserve">
       <c r="A151" t="str">
         <v>FRESHLINE MARKETING</v>
       </c>
-      <c r="B151" t="str">
-        <v>AUD</v>
+      <c r="B151" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone: 363918488_x000d_
+Fax: 363918806</v>
       </c>
       <c r="C151" t="str" xml:space="preserve">
         <v xml:space="preserve">5-13 JOHNS STREET_x000d_
 TAS WESTERN JUNCTION 7212</v>
       </c>
-      <c r="D151" t="str">
+      <c r="D151">
+        <v>363918488</v>
+      </c>
+      <c r="F151" t="str">
         <v>5-13 JOHNS STREET</v>
       </c>
-      <c r="E151" t="str">
+      <c r="G151" t="str">
         <v>TAS</v>
       </c>
-      <c r="G151" t="str" xml:space="preserve">
-        <v xml:space="preserve">Phone: 363918488_x000d_
-Fax: 363918806</v>
-      </c>
       <c r="H151" t="str">
+        <v>WESTERN JUNCTION</v>
+      </c>
+      <c r="I151" t="str">
+        <v>7212</v>
+      </c>
+      <c r="K151" t="str">
         <v>sales@freshline.net.au</v>
       </c>
-      <c r="K151" t="str">
+      <c r="N151" t="str">
         <v>EMILY KING</v>
       </c>
     </row>
@@ -2183,27 +2045,33 @@
       <c r="A152" t="str">
         <v>FRIEND AND BURRELL FINE FOODS</v>
       </c>
-      <c r="B152" t="str">
-        <v>AUD</v>
+      <c r="B152" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone: 0405424860 SIMON_x000d_
+Mobile: 0409809929 BRYAN</v>
       </c>
       <c r="C152" t="str" xml:space="preserve">
         <v xml:space="preserve">8 HILLCREST AVENUE_x000d_
 VIC KEW 3101</v>
       </c>
       <c r="D152" t="str">
+        <v>0405424860 SIMON</v>
+      </c>
+      <c r="F152" t="str">
         <v>8 HILLCREST AVENUE</v>
       </c>
-      <c r="E152" t="str">
+      <c r="G152" t="str">
         <v>VIC</v>
       </c>
-      <c r="G152" t="str" xml:space="preserve">
-        <v xml:space="preserve">Phone: 0405424860 SIMON_x000d_
-Mobile: 0409809929 BRYAN</v>
-      </c>
       <c r="H152" t="str">
+        <v>KEW</v>
+      </c>
+      <c r="I152" t="str">
+        <v>3101</v>
+      </c>
+      <c r="K152" t="str">
         <v>simon@friendandburrell.com.au</v>
       </c>
-      <c r="I152" t="str">
+      <c r="L152" t="str">
         <v>http://www.friendandburrell.com.au</v>
       </c>
     </row>
@@ -2212,61 +2080,64 @@
         <v>FTA FOOD SOLUTIONS PTY LTD</v>
       </c>
       <c r="B153" t="str">
-        <v>AUD</v>
+        <v>Phone: 8398 0500</v>
       </c>
       <c r="C153" t="str" xml:space="preserve">
         <v xml:space="preserve">41-45 Slough Rd_x000d_
 VIC ALTONA 3018</v>
       </c>
       <c r="D153" t="str">
+        <v>8398 0500</v>
+      </c>
+      <c r="E153" t="str">
+        <v>82059480054</v>
+      </c>
+      <c r="F153" t="str">
         <v>41-45 Slough Rd</v>
       </c>
-      <c r="E153" t="str">
+      <c r="G153" t="str">
         <v>VIC</v>
       </c>
-      <c r="G153" t="str">
-        <v>Phone: 8398 0500</v>
+      <c r="H153" t="str">
+        <v>ALTONA</v>
+      </c>
+      <c r="I153" t="str">
+        <v>3018</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
         <v>GAL-R</v>
       </c>
-      <c r="B154" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
         <v>GALIL FLAVORS LTD</v>
       </c>
-      <c r="B155" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C155" t="str">
         <v>Israel</v>
       </c>
-      <c r="F155" t="str">
+      <c r="E155" t="str">
+        <v>11111111111</v>
+      </c>
+      <c r="J155" t="str">
         <v>Israel</v>
       </c>
     </row>
     <row r="156" xml:space="preserve">
       <c r="A156" t="str">
         <v>GALIL FRAVORS LTD</v>
-      </c>
-      <c r="B156" t="str">
-        <v>AUD</v>
       </c>
       <c r="C156" t="str" xml:space="preserve">
         <v xml:space="preserve">GALIL FRAVORS LTD_x000d__x000d_
 None_x000d_
 IL</v>
       </c>
-      <c r="D156" t="str" xml:space="preserve">
+      <c r="F156" t="str" xml:space="preserve">
         <v xml:space="preserve">GALIL FRAVORS LTD_x000d__x000d_
 None</v>
       </c>
-      <c r="F156" t="str">
+      <c r="J156" t="str">
         <v>IL</v>
       </c>
     </row>
@@ -2274,13 +2145,10 @@
       <c r="A157" t="str">
         <v>GAMMA FISH</v>
       </c>
-      <c r="B157" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C157" t="str">
         <v>UKRAINE</v>
       </c>
-      <c r="F157" t="str">
+      <c r="J157" t="str">
         <v>UKRAINE</v>
       </c>
     </row>
@@ -2288,84 +2156,66 @@
       <c r="A158" t="str">
         <v>GIFT</v>
       </c>
-      <c r="B158" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
         <v>GILMORES</v>
       </c>
-      <c r="B159" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
         <v>GJ GLOBAL PTY LTD</v>
       </c>
-      <c r="B160" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
         <v>GLEN EIRA</v>
       </c>
-      <c r="B161" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
         <v>GLENN JONES REFRIGERATION</v>
       </c>
-      <c r="B162" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
         <v>GLOBAL MARITIME SL</v>
       </c>
-      <c r="B163" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
         <v>GLOBAL RUBBER</v>
       </c>
-      <c r="B164" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="165" xml:space="preserve">
       <c r="A165" t="str">
         <v>GLOBAL UNITY PTY LTD</v>
       </c>
       <c r="B165" t="str">
-        <v>AUD</v>
+        <v>Mobile: +7 (904) 629-72-30</v>
       </c>
       <c r="C165" t="str" xml:space="preserve">
         <v xml:space="preserve">GLOBAL UNITY PTY LTD_x000d__x000d_
 SVETLANSKAYA STREET 143, OF. 76_x000d_
 PRIMORSKIY KRAY, VLADIVOSTOK 690001</v>
       </c>
-      <c r="D165" t="str" xml:space="preserve">
+      <c r="E165" t="str">
+        <v>11111111111</v>
+      </c>
+      <c r="F165" t="str" xml:space="preserve">
         <v xml:space="preserve">GLOBAL UNITY PTY LTD_x000d__x000d_
 SVETLANSKAYA STREET 143, OF. 76</v>
       </c>
-      <c r="E165" t="str">
+      <c r="G165" t="str">
         <v>PRIMORSKIY KRAY, VLADIVOSTOK</v>
       </c>
-      <c r="G165" t="str">
-        <v>Mobile: +7 (904) 629-72-30</v>
-      </c>
-      <c r="H165" t="str">
+      <c r="I165" t="str">
+        <v>690001</v>
+      </c>
+      <c r="K165" t="str">
         <v>globalunityptyltd@mail.ru</v>
       </c>
-      <c r="K165" t="str">
+      <c r="N165" t="str">
         <v>ADA KAMNEVA</v>
       </c>
     </row>
@@ -2373,62 +2223,65 @@
       <c r="A166" t="str">
         <v>GLOSTRA CO</v>
       </c>
-      <c r="B166" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C166" t="str" xml:space="preserve">
         <v xml:space="preserve">34 Taunton drive_x000d_
 Cheltenham</v>
       </c>
-      <c r="D166" t="str">
+      <c r="F166" t="str">
         <v>34 Taunton drive</v>
+      </c>
+      <c r="H166" t="str">
+        <v>Cheltenham</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
         <v>GO GETTER</v>
       </c>
-      <c r="B167" t="str">
-        <v>AUD</v>
+      <c r="E167" t="str">
+        <v>64393645365</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
         <v>GO WORKPLACE TRAINING</v>
       </c>
-      <c r="B168" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="169" xml:space="preserve">
       <c r="A169" t="str">
         <v>GOLDEN FRIES</v>
       </c>
-      <c r="B169" t="str">
-        <v>AUD</v>
+      <c r="B169" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone: 399734915_x000d_
+Mobile: 424146061</v>
       </c>
       <c r="C169" t="str" xml:space="preserve">
         <v xml:space="preserve">97 NORTHEN RD,_x000d_
 VIC HEIDELBERG WEST_x000d_
 AUSTRALIA</v>
       </c>
-      <c r="D169" t="str">
+      <c r="D169">
+        <v>399734915</v>
+      </c>
+      <c r="E169" t="str">
+        <v>94619620218</v>
+      </c>
+      <c r="F169" t="str">
         <v>97 NORTHEN RD,</v>
       </c>
-      <c r="E169" t="str">
+      <c r="G169" t="str">
         <v>VIC</v>
       </c>
-      <c r="F169" t="str">
+      <c r="H169" t="str">
+        <v>HEIDELBERG WEST</v>
+      </c>
+      <c r="J169" t="str">
         <v>AUSTRALIA</v>
       </c>
-      <c r="G169" t="str" xml:space="preserve">
-        <v xml:space="preserve">Phone: 399734915_x000d_
-Mobile: 424146061</v>
-      </c>
-      <c r="H169" t="str">
+      <c r="K169" t="str">
         <v>info@goldenfries.com.au</v>
       </c>
-      <c r="I169" t="str">
+      <c r="L169" t="str">
         <v>https://www.goldenfries.com.au</v>
       </c>
     </row>
@@ -2437,85 +2290,82 @@
         <v>GOLDEN FRIES PTY.LTD</v>
       </c>
       <c r="B170" t="str">
-        <v>AUD</v>
+        <v>Phone: 94197906</v>
       </c>
       <c r="C170" t="str" xml:space="preserve">
         <v xml:space="preserve">P.O BOX_x000d_
 VIC COLLINGWOOD 3066_x000d_
 AUS</v>
       </c>
-      <c r="D170" t="str">
+      <c r="D170">
+        <v>94197906</v>
+      </c>
+      <c r="F170" t="str">
         <v>P.O BOX</v>
       </c>
-      <c r="E170" t="str">
+      <c r="G170" t="str">
         <v>VIC</v>
       </c>
-      <c r="F170" t="str">
+      <c r="H170" t="str">
+        <v>COLLINGWOOD</v>
+      </c>
+      <c r="I170" t="str">
+        <v>3066</v>
+      </c>
+      <c r="J170" t="str">
         <v>AUS</v>
-      </c>
-      <c r="G170" t="str">
-        <v>Phone: 94197906</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
         <v>GOLDEN LOGISTICS</v>
       </c>
-      <c r="B171" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
         <v>GOLDENLINE</v>
       </c>
-      <c r="B172" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
         <v>GOOD YEAR</v>
       </c>
-      <c r="B173" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
         <v>GOT JUNK</v>
       </c>
-      <c r="B174" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
         <v>GOURMET NUTS&amp;FOOD</v>
       </c>
-      <c r="B175" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="176" xml:space="preserve">
       <c r="A176" t="str">
         <v>GRANNY'S FOOD</v>
-      </c>
-      <c r="B176" t="str">
-        <v>AUD</v>
       </c>
       <c r="C176" t="str" xml:space="preserve">
         <v xml:space="preserve">UNIT 7/27 SWIFT WAY_x000d_
 VIC DANDENONG SOUTH 3175_x000d_
 Australia</v>
       </c>
-      <c r="D176" t="str">
+      <c r="E176" t="str">
+        <v>51742502231</v>
+      </c>
+      <c r="F176" t="str">
         <v>UNIT 7/27 SWIFT WAY</v>
       </c>
-      <c r="E176" t="str">
+      <c r="G176" t="str">
         <v>VIC</v>
       </c>
-      <c r="F176" t="str">
+      <c r="H176" t="str">
+        <v>DANDENONG SOUTH</v>
+      </c>
+      <c r="I176" t="str">
+        <v>3175</v>
+      </c>
+      <c r="J176" t="str">
         <v>Australia</v>
       </c>
     </row>
@@ -2523,54 +2373,57 @@
       <c r="A177" t="str">
         <v>GS1 AUST</v>
       </c>
-      <c r="B177" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="178" xml:space="preserve">
       <c r="A178" t="str">
         <v>GTG PRODUCTS P/L</v>
       </c>
       <c r="B178" t="str">
-        <v>AUD</v>
+        <v>Phone: TANYA</v>
       </c>
       <c r="C178" t="str" xml:space="preserve">
         <v xml:space="preserve">2/62 princess street_x000d_
 vic kew 3101</v>
       </c>
       <c r="D178" t="str">
+        <v>TANYA</v>
+      </c>
+      <c r="E178" t="str">
+        <v>40111282773</v>
+      </c>
+      <c r="F178" t="str">
         <v>2/62 princess street</v>
       </c>
-      <c r="E178" t="str">
+      <c r="G178" t="str">
         <v>vic</v>
       </c>
-      <c r="G178" t="str">
-        <v>Phone: TANYA</v>
-      </c>
       <c r="H178" t="str">
+        <v>kew</v>
+      </c>
+      <c r="I178" t="str">
+        <v>3101</v>
+      </c>
+      <c r="K178" t="str">
         <v>info@gtgproducts.com.au</v>
       </c>
-      <c r="K178">
+      <c r="N178">
         <v>414540571</v>
       </c>
     </row>
     <row r="179" xml:space="preserve">
       <c r="A179" t="str">
         <v>GTG PRODUCTS PL</v>
-      </c>
-      <c r="B179" t="str">
-        <v>AUD</v>
       </c>
       <c r="C179" t="str" xml:space="preserve">
         <v xml:space="preserve">GTG PRODUCTS PL_x000d__x000d_
 None_x000d_
 AU</v>
       </c>
-      <c r="D179" t="str" xml:space="preserve">
+      <c r="F179" t="str" xml:space="preserve">
         <v xml:space="preserve">GTG PRODUCTS PL_x000d__x000d_
 None</v>
       </c>
-      <c r="F179" t="str">
+      <c r="J179" t="str">
         <v>AU</v>
       </c>
     </row>
@@ -2578,42 +2431,45 @@
       <c r="A180" t="str">
         <v>GUARDIAN PROTECTIVE</v>
       </c>
-      <c r="B180" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="181" xml:space="preserve">
       <c r="A181" t="str">
         <v>GUNZ AUSTRALIA PTY.LTD</v>
       </c>
-      <c r="B181" t="str">
-        <v>AUD</v>
+      <c r="B181" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone: 488771665_x000d_
+Mobile: 94604042</v>
       </c>
       <c r="C181" t="str" xml:space="preserve">
         <v xml:space="preserve">PO. BOX 247_x000d_
 VIC CAMPBELLFIELD 3074_x000d_
 AUS</v>
       </c>
-      <c r="D181" t="str">
+      <c r="D181">
+        <v>488771665</v>
+      </c>
+      <c r="F181" t="str">
         <v>PO. BOX 247</v>
       </c>
-      <c r="E181" t="str">
+      <c r="G181" t="str">
         <v>VIC</v>
       </c>
-      <c r="F181" t="str">
+      <c r="H181" t="str">
+        <v>CAMPBELLFIELD</v>
+      </c>
+      <c r="I181" t="str">
+        <v>3074</v>
+      </c>
+      <c r="J181" t="str">
         <v>AUS</v>
       </c>
-      <c r="G181" t="str" xml:space="preserve">
-        <v xml:space="preserve">Phone: 488771665_x000d_
-Mobile: 94604042</v>
-      </c>
-      <c r="H181" t="str">
+      <c r="K181" t="str">
         <v>anthony.hickey@gunz.cc</v>
       </c>
-      <c r="I181" t="str">
+      <c r="L181" t="str">
         <v>http://www.gunz.cc</v>
       </c>
-      <c r="K181" t="str">
+      <c r="N181" t="str">
         <v>ANTHONY HICKEY</v>
       </c>
     </row>
@@ -2621,43 +2477,37 @@
       <c r="A182" t="str">
         <v>GUS PTY.LTD</v>
       </c>
-      <c r="B182" t="str">
-        <v>AUD</v>
+      <c r="E182" t="str">
+        <v>15142337077</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
         <v>GWS CHADSTONE PL</v>
       </c>
-      <c r="B183" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
         <v>HAPAG-LLOYD</v>
       </c>
-      <c r="B184" t="str">
-        <v>AUD</v>
+      <c r="E184" t="str">
+        <v>19060348021</v>
       </c>
     </row>
     <row r="185" xml:space="preserve">
       <c r="A185" t="str">
         <v>Harigon Gourmet Foods</v>
-      </c>
-      <c r="B185" t="str">
-        <v>AUD</v>
       </c>
       <c r="C185" t="str" xml:space="preserve">
         <v xml:space="preserve">Harigon Gourmet Foods_x000d__x000d_
 None_x000d_
 AU</v>
       </c>
-      <c r="D185" t="str" xml:space="preserve">
+      <c r="F185" t="str" xml:space="preserve">
         <v xml:space="preserve">Harigon Gourmet Foods_x000d__x000d_
 None</v>
       </c>
-      <c r="F185" t="str">
+      <c r="J185" t="str">
         <v>AU</v>
       </c>
     </row>
@@ -2665,24 +2515,18 @@
       <c r="A186" t="str">
         <v>HESTA</v>
       </c>
-      <c r="B186" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
         <v>HIGHGATE</v>
       </c>
-      <c r="B187" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="188" xml:space="preserve">
       <c r="A188" t="str">
         <v>HIREOO LABOUR PTY LTD</v>
       </c>
       <c r="B188" t="str">
-        <v>AUD</v>
+        <v>Phone: 4340318238</v>
       </c>
       <c r="C188" t="str" xml:space="preserve">
         <v xml:space="preserve">8 gamaret place_x000d_
@@ -2690,88 +2534,73 @@
 Australia</v>
       </c>
       <c r="D188" t="str">
+        <v>4340318238</v>
+      </c>
+      <c r="F188" t="str">
         <v>8 gamaret place</v>
       </c>
-      <c r="E188" t="str">
+      <c r="G188" t="str">
         <v>VIC</v>
       </c>
-      <c r="F188" t="str">
+      <c r="H188" t="str">
+        <v>Berwick</v>
+      </c>
+      <c r="I188" t="str">
+        <v>3806</v>
+      </c>
+      <c r="J188" t="str">
         <v>Australia</v>
-      </c>
-      <c r="G188" t="str">
-        <v>Phone: 4340318238</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
         <v>HMM</v>
       </c>
-      <c r="B189" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
         <v>HOTEL QLD</v>
       </c>
-      <c r="B190" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
         <v>HS CLEANING</v>
       </c>
-      <c r="B191" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
         <v>HUNTER EXPRESS</v>
       </c>
-      <c r="B192" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
         <v>IBD PTY LTD</v>
       </c>
-      <c r="B193" t="str">
-        <v>AUD</v>
+      <c r="E193" t="str">
+        <v>48683978275</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
         <v>IBEX FOODS</v>
       </c>
-      <c r="B194" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
         <v>ICEMAN</v>
       </c>
-      <c r="B195" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
         <v>ICRS</v>
       </c>
-      <c r="B196" t="str">
-        <v>AUD</v>
+      <c r="E196" t="str">
+        <v>89137742280</v>
       </c>
     </row>
     <row r="197" xml:space="preserve">
       <c r="A197" t="str">
         <v>IDS BORJOMI GEORGIA, LLC</v>
-      </c>
-      <c r="B197" t="str">
-        <v>AUD</v>
       </c>
       <c r="C197" t="str" xml:space="preserve">
         <v xml:space="preserve">IDS BORJOMI GEORGIA, LLC_x000d__x000d_
@@ -2779,14 +2608,17 @@
 TBILISI 0171_x000d_
 GE</v>
       </c>
-      <c r="D197" t="str" xml:space="preserve">
+      <c r="F197" t="str" xml:space="preserve">
         <v xml:space="preserve">IDS BORJOMI GEORGIA, LLC_x000d__x000d_
 10 BIDZINA KVERNADZE ST</v>
       </c>
-      <c r="E197" t="str">
+      <c r="G197" t="str">
         <v>TBILISI</v>
       </c>
-      <c r="F197" t="str">
+      <c r="I197" t="str">
+        <v>0171</v>
+      </c>
+      <c r="J197" t="str">
         <v>GE</v>
       </c>
     </row>
@@ -2794,117 +2626,87 @@
       <c r="A198" t="str">
         <v>IE SERVICE CENTRE PTY.LTD</v>
       </c>
-      <c r="B198" t="str">
-        <v>AUD</v>
+      <c r="E198" t="str">
+        <v>72177518242</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
         <v>ILC TECH</v>
       </c>
-      <c r="B199" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
         <v>INDUSTRIAL TRAINING</v>
       </c>
-      <c r="B200" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
         <v>INK STATION</v>
       </c>
-      <c r="B201" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
         <v>INSIGNIA</v>
       </c>
-      <c r="B202" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
         <v>INT EXP</v>
       </c>
-      <c r="B203" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
         <v>INTERACTIVE PRINTER SOLUTION</v>
       </c>
-      <c r="B204" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
         <v>IP AUSTRALIA</v>
       </c>
-      <c r="B205" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
         <v>IRINA V</v>
       </c>
-      <c r="B206" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
         <v>IT GROUP</v>
       </c>
-      <c r="B207" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
         <v>ITT- JETPAK PTY LTD</v>
       </c>
-      <c r="B208" t="str">
-        <v>AUD</v>
+      <c r="E208" t="str">
+        <v>92632930291</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
         <v>JACOBS-MADE IN AISTRALIA</v>
       </c>
-      <c r="B209" t="str">
-        <v>AUD</v>
+      <c r="E209" t="str">
+        <v>75347428094</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
         <v>JACPAK</v>
       </c>
-      <c r="B210" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
         <v>JAM &amp; JAM LTD</v>
       </c>
-      <c r="B211" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C211" t="str">
         <v>BULGARIA</v>
       </c>
-      <c r="F211" t="str">
+      <c r="E211" t="str">
+        <v>11111111111</v>
+      </c>
+      <c r="J211" t="str">
         <v>BULGARIA</v>
       </c>
     </row>
@@ -2912,72 +2714,51 @@
       <c r="A212" t="str">
         <v>JAY WALKER</v>
       </c>
-      <c r="B212" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
         <v>JAYDE TRANSPORT</v>
       </c>
-      <c r="B213" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
         <v>JB HI</v>
       </c>
-      <c r="B214" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
         <v>JETSTAR</v>
       </c>
-      <c r="B215" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
         <v>JIALIFT AUST</v>
       </c>
-      <c r="B216" t="str">
-        <v>AUD</v>
+      <c r="E216" t="str">
+        <v>16164661956</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
         <v>JIM'S CLEANING</v>
       </c>
-      <c r="B217" t="str">
-        <v>AUD</v>
+      <c r="E217" t="str">
+        <v>62274833802</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
         <v>JMF(GLOBAL) PTY LTD</v>
       </c>
-      <c r="B218" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
         <v>JOBSYNC</v>
       </c>
-      <c r="B219" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="220" xml:space="preserve">
       <c r="A220" t="str">
         <v>JOHN MUNRO</v>
-      </c>
-      <c r="B220" t="str">
-        <v>AUD</v>
       </c>
       <c r="C220" t="str" xml:space="preserve">
         <v xml:space="preserve">JOHN MUNRO_x000d__x000d_
@@ -2985,14 +2766,14 @@
 VIC 3941_x000d_
 AU</v>
       </c>
-      <c r="D220" t="str" xml:space="preserve">
+      <c r="F220" t="str" xml:space="preserve">
         <v xml:space="preserve">JOHN MUNRO_x000d__x000d_
 N/A</v>
       </c>
-      <c r="E220" t="str">
+      <c r="G220" t="str">
         <v>VIC 3941</v>
       </c>
-      <c r="F220" t="str">
+      <c r="J220" t="str">
         <v>AU</v>
       </c>
     </row>
@@ -3001,7 +2782,7 @@
         <v>KARSTEN MARKETING</v>
       </c>
       <c r="B221" t="str">
-        <v>AUD</v>
+        <v>Phone: +27219705120</v>
       </c>
       <c r="C221" t="str" xml:space="preserve">
         <v xml:space="preserve">KARSTEN MARKETING_x000d__x000d_
@@ -3009,43 +2790,40 @@
 DURBANVILLE_x000d_
 ZA</v>
       </c>
-      <c r="D221" t="str" xml:space="preserve">
+      <c r="D221" t="str">
+        <v>+27219705120</v>
+      </c>
+      <c r="F221" t="str" xml:space="preserve">
         <v xml:space="preserve">KARSTEN MARKETING_x000d__x000d_
 QUEEN STREET 3 / P.O. Box 2667</v>
       </c>
-      <c r="E221" t="str">
+      <c r="G221" t="str">
         <v>DURBANVILLE</v>
       </c>
-      <c r="F221" t="str">
+      <c r="J221" t="str">
         <v>ZA</v>
-      </c>
-      <c r="G221" t="str">
-        <v>Phone: +27219705120</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
         <v>KARSTEN/NATURES BRIDGE</v>
       </c>
-      <c r="B222" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="223" xml:space="preserve">
       <c r="A223" t="str">
         <v>KASOL JA KAZBERUK</v>
       </c>
-      <c r="B223" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C223" t="str" xml:space="preserve">
         <v xml:space="preserve">BIALYSTOK_x000d_
 POLAND</v>
       </c>
-      <c r="D223" t="str">
+      <c r="E223" t="str">
+        <v>11111111111</v>
+      </c>
+      <c r="F223" t="str">
         <v>BIALYSTOK</v>
       </c>
-      <c r="F223" t="str">
+      <c r="J223" t="str">
         <v>POLAND</v>
       </c>
     </row>
@@ -3054,22 +2832,28 @@
         <v>KEARLEY LEWIS</v>
       </c>
       <c r="B224" t="str">
-        <v>AUD</v>
+        <v>Phone: 96298777</v>
       </c>
       <c r="C224" t="str" xml:space="preserve">
         <v xml:space="preserve">P.O BOX 138 COLLINS STREET WEST MELBOURNE_x000d_
 VIC 8007</v>
       </c>
-      <c r="D224" t="str">
+      <c r="D224">
+        <v>96298777</v>
+      </c>
+      <c r="E224" t="str">
+        <v>56061754854</v>
+      </c>
+      <c r="F224" t="str">
         <v>P.O BOX 138 COLLINS STREET WEST MELBOURNE</v>
       </c>
-      <c r="E224" t="str">
+      <c r="G224" t="str">
         <v>VIC</v>
       </c>
-      <c r="G224" t="str">
-        <v>Phone: 96298777</v>
-      </c>
-      <c r="H224" t="str">
+      <c r="I224" t="str">
+        <v>8007</v>
+      </c>
+      <c r="K224" t="str">
         <v>accounts@kearleylewis.com.au</v>
       </c>
     </row>
@@ -3077,29 +2861,23 @@
       <c r="A225" t="str">
         <v>KERRY LOGISTICS</v>
       </c>
-      <c r="B225" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
         <v>KINGSTON COUNCIL</v>
       </c>
-      <c r="B226" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
         <v>KINNERET FARM LTD</v>
       </c>
-      <c r="B227" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C227" t="str">
         <v>ISRAEL</v>
       </c>
-      <c r="D227" t="str">
+      <c r="E227" t="str">
+        <v>11111111111</v>
+      </c>
+      <c r="F227" t="str">
         <v>ISRAEL</v>
       </c>
     </row>
@@ -3107,42 +2885,46 @@
       <c r="A228" t="str">
         <v>KOGEN, ALEXANDER</v>
       </c>
-      <c r="B228" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C228" t="str" xml:space="preserve">
         <v xml:space="preserve">10/11 Hasnnah St_x000d_
 vic Cheltenham 3192</v>
       </c>
-      <c r="D228" t="str">
+      <c r="E228" t="str">
+        <v>69742621220</v>
+      </c>
+      <c r="F228" t="str">
         <v>10/11 Hasnnah St</v>
       </c>
-      <c r="E228" t="str">
+      <c r="G228" t="str">
         <v>vic</v>
+      </c>
+      <c r="H228" t="str">
+        <v>Cheltenham</v>
+      </c>
+      <c r="I228" t="str">
+        <v>3192</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
         <v>KOL</v>
       </c>
-      <c r="B229" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
         <v>KONEX-TIVA</v>
       </c>
-      <c r="B230" t="str">
-        <v>AUD</v>
+      <c r="E230" t="str">
+        <v>11111111111</v>
       </c>
     </row>
     <row r="231" xml:space="preserve">
       <c r="A231" t="str">
         <v>Krinsky's Kosher Supermarket</v>
       </c>
-      <c r="B231" t="str">
-        <v>AUD</v>
+      <c r="B231" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone: 02-93869021_x000d_
+Fax: 02-93691240</v>
       </c>
       <c r="C231" t="str" xml:space="preserve">
         <v xml:space="preserve">175 Bondi road_x000d_
@@ -3150,22 +2932,30 @@
 AUS</v>
       </c>
       <c r="D231" t="str">
+        <v>02-93869021</v>
+      </c>
+      <c r="E231" t="str">
+        <v>44410677366</v>
+      </c>
+      <c r="F231" t="str">
         <v>175 Bondi road</v>
       </c>
-      <c r="E231" t="str">
+      <c r="G231" t="str">
         <v>NSW</v>
       </c>
-      <c r="F231" t="str">
+      <c r="H231" t="str">
+        <v>Bondi</v>
+      </c>
+      <c r="I231" t="str">
+        <v>2026</v>
+      </c>
+      <c r="J231" t="str">
         <v>AUS</v>
       </c>
-      <c r="G231" t="str" xml:space="preserve">
-        <v xml:space="preserve">Phone: 02-93869021_x000d_
-Fax: 02-93691240</v>
-      </c>
-      <c r="H231" t="str">
+      <c r="K231" t="str">
         <v>krinskyskosher@gmail.com</v>
       </c>
-      <c r="K231" t="str">
+      <c r="N231" t="str">
         <v>Shaina Krinsky</v>
       </c>
     </row>
@@ -3173,51 +2963,42 @@
       <c r="A232" t="str">
         <v>KS ENVIROMENTAL</v>
       </c>
-      <c r="B232" t="str">
-        <v>AUD</v>
+      <c r="E232" t="str">
+        <v>96004687709</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
         <v>KTL</v>
       </c>
-      <c r="B233" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
         <v>KUEHNE?</v>
       </c>
-      <c r="B234" t="str">
-        <v>AUD</v>
+      <c r="E234" t="str">
+        <v>70000871607</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
         <v>LABS FASHION</v>
       </c>
-      <c r="B235" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="236" xml:space="preserve">
       <c r="A236" t="str">
         <v>LANSCORP</v>
-      </c>
-      <c r="B236" t="str">
-        <v>AUD</v>
       </c>
       <c r="C236" t="str" xml:space="preserve">
         <v xml:space="preserve">LANSCORP_x000d__x000d_
 None_x000d_
 AU</v>
       </c>
-      <c r="D236" t="str" xml:space="preserve">
+      <c r="F236" t="str" xml:space="preserve">
         <v xml:space="preserve">LANSCORP_x000d__x000d_
 None</v>
       </c>
-      <c r="F236" t="str">
+      <c r="J236" t="str">
         <v>AU</v>
       </c>
     </row>
@@ -3225,40 +3006,28 @@
       <c r="A237" t="str">
         <v>LEADER DISPLAY</v>
       </c>
-      <c r="B237" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
         <v>LEMBERG</v>
       </c>
-      <c r="B238" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
         <v>LES CHAPMAN &amp; SON</v>
       </c>
-      <c r="B239" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
         <v>LESAFFRE AUSTRALIA PACIFIC</v>
       </c>
-      <c r="B240" t="str">
-        <v>AUD</v>
+      <c r="E240" t="str">
+        <v>20061508825</v>
       </c>
     </row>
     <row r="241" xml:space="preserve">
       <c r="A241" t="str">
         <v>LEVTRADE CO. LTD</v>
-      </c>
-      <c r="B241" t="str">
-        <v>AUD</v>
       </c>
       <c r="C241" t="str" xml:space="preserve">
         <v xml:space="preserve">76/143 SVETLANSKAYA ST_x000d__x000d_
@@ -3266,11 +3035,17 @@
 VLADIVOSTOK 690001_x000d_
 RUSSIA</v>
       </c>
-      <c r="D241" t="str" xml:space="preserve">
+      <c r="F241" t="str" xml:space="preserve">
         <v xml:space="preserve">76/143 SVETLANSKAYA ST_x000d__x000d_
 PRIMORSKYI KRAY</v>
       </c>
-      <c r="F241" t="str">
+      <c r="H241" t="str">
+        <v>VLADIVOSTOK</v>
+      </c>
+      <c r="I241" t="str">
+        <v>690001</v>
+      </c>
+      <c r="J241" t="str">
         <v>RUSSIA</v>
       </c>
     </row>
@@ -3279,7 +3054,7 @@
         <v>LIALIFT AUSTRALIA PTY LTD</v>
       </c>
       <c r="B242" t="str">
-        <v>AUD</v>
+        <v>Phone: 03 9720 8130</v>
       </c>
       <c r="C242" t="str" xml:space="preserve">
         <v xml:space="preserve">75 POWER ROAD_x000d_
@@ -3287,18 +3062,27 @@
 Australia</v>
       </c>
       <c r="D242" t="str">
+        <v>03 9720 8130</v>
+      </c>
+      <c r="E242" t="str">
+        <v>16164661956</v>
+      </c>
+      <c r="F242" t="str">
         <v>75 POWER ROAD</v>
       </c>
-      <c r="E242" t="str">
+      <c r="G242" t="str">
         <v>VIC</v>
       </c>
-      <c r="F242" t="str">
+      <c r="H242" t="str">
+        <v>BORONIA</v>
+      </c>
+      <c r="I242" t="str">
+        <v>3144</v>
+      </c>
+      <c r="J242" t="str">
         <v>Australia</v>
       </c>
-      <c r="G242" t="str">
-        <v>Phone: 03 9720 8130</v>
-      </c>
-      <c r="H242" t="str">
+      <c r="K242" t="str">
         <v>sales@jialify.com.au</v>
       </c>
     </row>
@@ -3306,37 +3090,25 @@
       <c r="A243" t="str">
         <v>LINEAGE AUS</v>
       </c>
-      <c r="B243" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
         <v>LINK</v>
       </c>
-      <c r="B244" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
         <v>LINKT</v>
       </c>
-      <c r="B245" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
         <v>LLC TEMP</v>
       </c>
-      <c r="B246" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C246" t="str">
         <v>RUSSIA</v>
       </c>
-      <c r="D246" t="str">
+      <c r="F246" t="str">
         <v>RUSSIA</v>
       </c>
     </row>
@@ -3344,69 +3116,57 @@
       <c r="A247" t="str">
         <v>LOAN LC</v>
       </c>
-      <c r="B247" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
         <v>LUBA/ALPINE/RACOVOLIS</v>
       </c>
-      <c r="B248" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
         <v>LUMO ENERGY</v>
       </c>
-      <c r="B249" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
         <v>LUXPARK</v>
       </c>
-      <c r="B250" t="str">
-        <v>AUD</v>
+      <c r="E250" t="str">
+        <v>70686150535</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
         <v>M&amp;E MCCARTHY AND ELLIS</v>
       </c>
-      <c r="B251" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
         <v>MAERSK LINE</v>
       </c>
-      <c r="B252" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="253" xml:space="preserve">
       <c r="A253" t="str">
         <v>MAHROUM SWEETS</v>
       </c>
-      <c r="B253" t="str">
-        <v>AUD</v>
+      <c r="B253" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone: ?4-6554470_x000d_
+Fax: ?4-6562469</v>
       </c>
       <c r="C253" t="str" xml:space="preserve">
         <v xml:space="preserve">NAZARETH_x000d_
 ISRAEL</v>
       </c>
-      <c r="F253" t="str">
+      <c r="D253" t="str">
+        <v>?4-6554470</v>
+      </c>
+      <c r="H253" t="str">
+        <v>NAZARETH</v>
+      </c>
+      <c r="J253" t="str">
         <v>ISRAEL</v>
       </c>
-      <c r="G253" t="str" xml:space="preserve">
-        <v xml:space="preserve">Phone: ?4-6554470_x000d_
-Fax: ?4-6562469</v>
-      </c>
-      <c r="K253" t="str">
+      <c r="N253" t="str">
         <v>DIAB</v>
       </c>
     </row>
@@ -3414,24 +3174,21 @@
       <c r="A254" t="str">
         <v>MAINFREIGHT</v>
       </c>
-      <c r="B254" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
         <v>MARINER PTY LTD</v>
       </c>
       <c r="B255" t="str">
-        <v>AUD</v>
-      </c>
-      <c r="G255" t="str">
         <v>Fax: 94171744</v>
       </c>
-      <c r="H255" t="str">
+      <c r="E255" t="str">
+        <v>27007353871</v>
+      </c>
+      <c r="K255" t="str">
         <v>marinerinternational@gmail.com</v>
       </c>
-      <c r="K255" t="str">
+      <c r="N255" t="str">
         <v>JOHN</v>
       </c>
     </row>
@@ -3439,16 +3196,13 @@
       <c r="A256" t="str">
         <v>MARITINA</v>
       </c>
-      <c r="B256" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
         <v>MARTGRAPHICS</v>
       </c>
-      <c r="B257" t="str">
-        <v>AUD</v>
+      <c r="E257" t="str">
+        <v>86250315099</v>
       </c>
     </row>
     <row r="258">
@@ -3456,15 +3210,18 @@
         <v>MAS IMPORTS &amp; EXPORTS P/L</v>
       </c>
       <c r="B258" t="str">
-        <v>AUD</v>
-      </c>
-      <c r="G258" t="str">
         <v>Phone: 0414075355 hassan</v>
       </c>
-      <c r="H258" t="str">
+      <c r="D258" t="str">
+        <v>0414075355 hassan</v>
+      </c>
+      <c r="E258" t="str">
+        <v>77602533111</v>
+      </c>
+      <c r="K258" t="str">
         <v>hdemirmas@gmail.com</v>
       </c>
-      <c r="I258" t="str">
+      <c r="L258" t="str">
         <v>http://ali@masimpex.com.au</v>
       </c>
     </row>
@@ -3472,16 +3229,13 @@
       <c r="A259" t="str">
         <v>MASSENA</v>
       </c>
-      <c r="B259" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="260" xml:space="preserve">
       <c r="A260" t="str">
         <v>MB FOODS PTY LTD</v>
       </c>
       <c r="B260" t="str">
-        <v>AUD</v>
+        <v>Phone: (03) 9309-9112</v>
       </c>
       <c r="C260" t="str" xml:space="preserve">
         <v xml:space="preserve">MB FOODS PTY LTD_x000d__x000d_
@@ -3489,20 +3243,26 @@
 SOMERTON Victoria 3062_x000d_
 AU</v>
       </c>
-      <c r="D260" t="str" xml:space="preserve">
+      <c r="D260" t="str">
+        <v>(03) 9309-9112</v>
+      </c>
+      <c r="F260" t="str" xml:space="preserve">
         <v xml:space="preserve">MB FOODS PTY LTD_x000d__x000d_
 10 KATZ WAY</v>
       </c>
-      <c r="E260" t="str">
+      <c r="G260" t="str">
         <v>SOMERTON</v>
       </c>
-      <c r="F260" t="str">
+      <c r="H260" t="str">
+        <v>Victoria</v>
+      </c>
+      <c r="I260" t="str">
+        <v>3062</v>
+      </c>
+      <c r="J260" t="str">
         <v>AU</v>
       </c>
-      <c r="G260" t="str">
-        <v>Phone: (03) 9309-9112</v>
-      </c>
-      <c r="H260" t="str">
+      <c r="K260" t="str">
         <v>accounts@medfoods.com.au</v>
       </c>
     </row>
@@ -3510,19 +3270,19 @@
       <c r="A261" t="str">
         <v>MEAT FLOUR</v>
       </c>
-      <c r="B261" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
         <v>MECHAALANI &amp; SONS FOOD SERVICES PTY LTD</v>
       </c>
       <c r="B262" t="str">
-        <v>AUD</v>
-      </c>
-      <c r="G262" t="str">
         <v>Phone: 0400922654 ABDU</v>
+      </c>
+      <c r="D262" t="str">
+        <v>0400922654 ABDU</v>
+      </c>
+      <c r="E262" t="str">
+        <v>43093138688</v>
       </c>
     </row>
     <row r="263" xml:space="preserve">
@@ -3530,7 +3290,7 @@
         <v>MED FOODS</v>
       </c>
       <c r="B263" t="str">
-        <v>AUD</v>
+        <v>Phone: (03) 9309-9112</v>
       </c>
       <c r="C263" t="str" xml:space="preserve">
         <v xml:space="preserve">MED FOODS_x000d__x000d_
@@ -3538,20 +3298,26 @@
 SOMERTON Victoria 3062_x000d_
 AU</v>
       </c>
-      <c r="D263" t="str" xml:space="preserve">
+      <c r="D263" t="str">
+        <v>(03) 9309-9112</v>
+      </c>
+      <c r="F263" t="str" xml:space="preserve">
         <v xml:space="preserve">MED FOODS_x000d__x000d_
 10 KATZ WAY</v>
       </c>
-      <c r="E263" t="str">
+      <c r="G263" t="str">
         <v>SOMERTON</v>
       </c>
-      <c r="F263" t="str">
+      <c r="H263" t="str">
+        <v>Victoria</v>
+      </c>
+      <c r="I263" t="str">
+        <v>3062</v>
+      </c>
+      <c r="J263" t="str">
         <v>AU</v>
       </c>
-      <c r="G263" t="str">
-        <v>Phone: (03) 9309-9112</v>
-      </c>
-      <c r="H263" t="str">
+      <c r="K263" t="str">
         <v>accounts@medfoods.com.au</v>
       </c>
     </row>
@@ -3559,83 +3325,98 @@
       <c r="A264" t="str">
         <v>MEDJOOL PLUS LTD</v>
       </c>
-      <c r="B264" t="str">
-        <v>AUD</v>
+      <c r="E264" t="str">
+        <v>11111111111</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
         <v>MEGA FREIGHT</v>
       </c>
-      <c r="B265" t="str">
-        <v>AUD</v>
+      <c r="E265" t="str">
+        <v>16053812123</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
         <v>MELB BOLT CO</v>
       </c>
-      <c r="B266" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="267" xml:space="preserve">
       <c r="A267" t="str">
         <v>MELBOURNE CURED</v>
       </c>
       <c r="B267" t="str">
-        <v>AUD</v>
+        <v>Phone: 435475038</v>
       </c>
       <c r="C267" t="str" xml:space="preserve">
         <v xml:space="preserve">2B DUNLOP ROAD_x000d_
 VIC HOPPERS CROSSING 3029_x000d_
 Australia</v>
       </c>
-      <c r="D267" t="str">
+      <c r="D267">
+        <v>435475038</v>
+      </c>
+      <c r="E267" t="str">
+        <v>74840236458</v>
+      </c>
+      <c r="F267" t="str">
         <v>2B DUNLOP ROAD</v>
       </c>
-      <c r="E267" t="str">
+      <c r="G267" t="str">
         <v>VIC</v>
       </c>
-      <c r="F267" t="str">
+      <c r="H267" t="str">
+        <v>HOPPERS CROSSING</v>
+      </c>
+      <c r="I267" t="str">
+        <v>3029</v>
+      </c>
+      <c r="J267" t="str">
         <v>Australia</v>
-      </c>
-      <c r="G267" t="str">
-        <v>Phone: 435475038</v>
       </c>
     </row>
     <row r="268" xml:space="preserve">
       <c r="A268" t="str">
         <v>MELBOURNE NUT COMPANY PTY LTD</v>
       </c>
-      <c r="B268" t="str">
-        <v>AUD</v>
+      <c r="B268" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone: 94622929_x000d_
+Fax: 94621388</v>
       </c>
       <c r="C268" t="str" xml:space="preserve">
         <v xml:space="preserve">12 BREX COURT_x000d_
 VIC RESERVOIR 3073_x000d_
 AUS</v>
       </c>
-      <c r="D268" t="str">
+      <c r="D268">
+        <v>94622929</v>
+      </c>
+      <c r="E268" t="str">
+        <v>78576785591</v>
+      </c>
+      <c r="F268" t="str">
         <v>12 BREX COURT</v>
       </c>
-      <c r="E268" t="str">
+      <c r="G268" t="str">
         <v>VIC</v>
       </c>
-      <c r="F268" t="str">
+      <c r="H268" t="str">
+        <v>RESERVOIR</v>
+      </c>
+      <c r="I268" t="str">
+        <v>3073</v>
+      </c>
+      <c r="J268" t="str">
         <v>AUS</v>
       </c>
-      <c r="G268" t="str" xml:space="preserve">
-        <v xml:space="preserve">Phone: 94622929_x000d_
-Fax: 94621388</v>
-      </c>
-      <c r="H268" t="str">
+      <c r="K268" t="str">
         <v>info@melbournenutco.com.au</v>
       </c>
-      <c r="I268" t="str">
+      <c r="L268" t="str">
         <v>http://www.melbournenutco.com.au</v>
       </c>
-      <c r="K268" t="str">
+      <c r="N268" t="str">
         <v>el sheikh</v>
       </c>
     </row>
@@ -3643,8 +3424,8 @@
       <c r="A269" t="str">
         <v>MELBOURNE OFFICE SUPPLIES</v>
       </c>
-      <c r="B269" t="str">
-        <v>AUD</v>
+      <c r="E269" t="str">
+        <v>12485599069</v>
       </c>
     </row>
     <row r="270" xml:space="preserve">
@@ -3652,20 +3433,29 @@
         <v>MELBOURNE PACKAGING SUPPLIES P/L</v>
       </c>
       <c r="B270" t="str">
-        <v>AUD</v>
+        <v>Phone: 1300396835</v>
       </c>
       <c r="C270" t="str" xml:space="preserve">
         <v xml:space="preserve">UNIT 3/7 EASTSPUR COURT_x000d_
 VIC KILSYTH 3137</v>
       </c>
-      <c r="D270" t="str">
+      <c r="D270">
+        <v>1300396835</v>
+      </c>
+      <c r="E270" t="str">
+        <v>43005605952</v>
+      </c>
+      <c r="F270" t="str">
         <v>UNIT 3/7 EASTSPUR COURT</v>
       </c>
-      <c r="E270" t="str">
+      <c r="G270" t="str">
         <v>VIC</v>
       </c>
-      <c r="G270" t="str">
-        <v>Phone: 1300396835</v>
+      <c r="H270" t="str">
+        <v>KILSYTH</v>
+      </c>
+      <c r="I270" t="str">
+        <v>3137</v>
       </c>
     </row>
     <row r="271" xml:space="preserve">
@@ -3673,25 +3463,34 @@
         <v>MERC AUSTRALIA PTY LTD</v>
       </c>
       <c r="B271" t="str">
-        <v>AUD</v>
+        <v>Phone: 04 2520 6749</v>
       </c>
       <c r="C271" t="str" xml:space="preserve">
         <v xml:space="preserve">7/10 LYN PDE_x000d_
 PRESTONS NSW 2170</v>
       </c>
       <c r="D271" t="str">
+        <v>04 2520 6749</v>
+      </c>
+      <c r="E271" t="str">
+        <v>56104963046</v>
+      </c>
+      <c r="F271" t="str">
         <v>7/10 LYN PDE</v>
       </c>
-      <c r="E271" t="str">
+      <c r="G271" t="str">
         <v>PRESTONS</v>
       </c>
-      <c r="G271" t="str">
-        <v>Phone: 04 2520 6749</v>
-      </c>
       <c r="H271" t="str">
+        <v>NSW</v>
+      </c>
+      <c r="I271" t="str">
+        <v>2170</v>
+      </c>
+      <c r="K271" t="str">
         <v>merc_aus@yahoo.com.au</v>
       </c>
-      <c r="K271" t="str">
+      <c r="N271" t="str">
         <v>MICHAEL</v>
       </c>
     </row>
@@ -3699,67 +3498,52 @@
       <c r="A272" t="str">
         <v>MERCHANT FEES</v>
       </c>
-      <c r="B272" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
         <v>MICHAEL VAYNBERG</v>
       </c>
-      <c r="B273" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
         <v>MIKHAIL BARABANOV</v>
       </c>
-      <c r="B274" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
         <v>MINUS 1</v>
       </c>
-      <c r="B275" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
         <v>MINUTEMAN PRESS</v>
       </c>
-      <c r="B276" t="str">
-        <v>AUD</v>
+      <c r="E276" t="str">
+        <v>61129190174</v>
       </c>
     </row>
     <row r="277" xml:space="preserve">
       <c r="A277" t="str">
         <v>MIRA</v>
-      </c>
-      <c r="B277" t="str">
-        <v>AUD</v>
       </c>
       <c r="C277" t="str" xml:space="preserve">
         <v xml:space="preserve">23 PLISCA STREET_x000d_
 NOVI PAZAR_x000d_
 BULGARIA</v>
       </c>
-      <c r="D277" t="str">
+      <c r="F277" t="str">
         <v>23 PLISCA STREET</v>
       </c>
-      <c r="F277" t="str">
+      <c r="H277" t="str">
+        <v>NOVI PAZAR</v>
+      </c>
+      <c r="J277" t="str">
         <v>BULGARIA</v>
       </c>
     </row>
     <row r="278" xml:space="preserve">
       <c r="A278" t="str">
         <v>MISCHIEF BREW</v>
-      </c>
-      <c r="B278" t="str">
-        <v>AUD</v>
       </c>
       <c r="C278" t="str" xml:space="preserve">
         <v xml:space="preserve">Mischief Brew_x000d__x000d_
@@ -3767,14 +3551,20 @@
 Underdale South Australia 5032_x000d_
 AU</v>
       </c>
-      <c r="D278" t="str" xml:space="preserve">
+      <c r="F278" t="str" xml:space="preserve">
         <v xml:space="preserve">Mischief Brew_x000d__x000d_
 18 Vintage Road</v>
       </c>
-      <c r="E278" t="str">
+      <c r="G278" t="str">
         <v>Underdale</v>
       </c>
-      <c r="F278" t="str">
+      <c r="H278" t="str">
+        <v>South Australia</v>
+      </c>
+      <c r="I278" t="str">
+        <v>5032</v>
+      </c>
+      <c r="J278" t="str">
         <v>AU</v>
       </c>
     </row>
@@ -3782,16 +3572,16 @@
       <c r="A279" t="str">
         <v>MJ CONTAINERS</v>
       </c>
-      <c r="B279" t="str">
-        <v>AUD</v>
+      <c r="E279" t="str">
+        <v>58261348713</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
         <v>MOM CARLTON COLOUR COPY CENTRE</v>
       </c>
-      <c r="B280" t="str">
-        <v>AUD</v>
+      <c r="E280" t="str">
+        <v>42006607923</v>
       </c>
     </row>
     <row r="281" xml:space="preserve">
@@ -3799,22 +3589,31 @@
         <v>MOS BEVERAGES</v>
       </c>
       <c r="B281" t="str">
-        <v>AUD</v>
+        <v>Phone: 403311282</v>
       </c>
       <c r="C281" t="str" xml:space="preserve">
         <v xml:space="preserve">17/834 BOURKE STREET_x000d_
 NSW WATERLOO. 2017</v>
       </c>
-      <c r="D281" t="str">
+      <c r="D281">
+        <v>403311282</v>
+      </c>
+      <c r="E281" t="str">
+        <v>91609622380</v>
+      </c>
+      <c r="F281" t="str">
         <v>17/834 BOURKE STREET</v>
       </c>
-      <c r="E281" t="str">
+      <c r="G281" t="str">
         <v>NSW</v>
       </c>
-      <c r="G281" t="str">
-        <v>Phone: 403311282</v>
+      <c r="H281" t="str">
+        <v>WATERLOO.</v>
       </c>
       <c r="I281" t="str">
+        <v>2017</v>
+      </c>
+      <c r="L281" t="str">
         <v>http://www.mosbv.com.au</v>
       </c>
     </row>
@@ -3822,72 +3621,87 @@
       <c r="A282" t="str">
         <v>MOUNTAIN FRESH TROUT AND SALMON FARM</v>
       </c>
-      <c r="B282" t="str">
-        <v>AUD</v>
+      <c r="B282" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone: 03 57592558_x000d_
+Fax: 357592628</v>
       </c>
       <c r="C282" t="str" xml:space="preserve">
         <v xml:space="preserve">PO BOX 459_x000d_
 VIC BRIGHT 3741</v>
       </c>
       <c r="D282" t="str">
+        <v>03 57592558</v>
+      </c>
+      <c r="E282" t="str">
+        <v>27478093434</v>
+      </c>
+      <c r="F282" t="str">
         <v>PO BOX 459</v>
       </c>
-      <c r="E282" t="str">
+      <c r="G282" t="str">
         <v>VIC</v>
       </c>
-      <c r="G282" t="str" xml:space="preserve">
-        <v xml:space="preserve">Phone: 03 57592558_x000d_
-Fax: 357592628</v>
+      <c r="H282" t="str">
+        <v>BRIGHT</v>
+      </c>
+      <c r="I282" t="str">
+        <v>3741</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
         <v>MSC</v>
       </c>
-      <c r="B283" t="str">
-        <v>AUD</v>
+      <c r="E283" t="str">
+        <v>12003760638</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
         <v>MYFOODS IMPORT/EXPORT</v>
       </c>
-      <c r="B284" t="str">
-        <v>AUD</v>
+      <c r="E284" t="str">
+        <v>53604880917</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
         <v>NATAN KASPIN</v>
       </c>
-      <c r="B285" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="286" xml:space="preserve">
       <c r="A286" t="str">
         <v>NATIONAL EGGS PTY LTD</v>
       </c>
       <c r="B286" t="str">
-        <v>AUD</v>
+        <v>Phone: 84887944</v>
       </c>
       <c r="C286" t="str" xml:space="preserve">
         <v xml:space="preserve">375 SETTLEMENT ROAD_x000d_
 VIC THOMASTOWN 3195</v>
       </c>
-      <c r="D286" t="str">
+      <c r="D286">
+        <v>84887944</v>
+      </c>
+      <c r="E286" t="str">
+        <v>97164261769</v>
+      </c>
+      <c r="F286" t="str">
         <v>375 SETTLEMENT ROAD</v>
       </c>
-      <c r="E286" t="str">
+      <c r="G286" t="str">
         <v>VIC</v>
       </c>
-      <c r="G286" t="str">
-        <v>Phone: 84887944</v>
-      </c>
       <c r="H286" t="str">
+        <v>THOMASTOWN</v>
+      </c>
+      <c r="I286" t="str">
+        <v>3195</v>
+      </c>
+      <c r="K286" t="str">
         <v>sales@nationaleggs.com.au</v>
       </c>
-      <c r="J286" t="str">
+      <c r="M286" t="str">
         <v>083-363 944563302</v>
       </c>
     </row>
@@ -3895,37 +3709,43 @@
       <c r="A287" t="str">
         <v>NATIONAL MEASUREMENT INSTITUTE</v>
       </c>
-      <c r="B287" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="288" xml:space="preserve">
       <c r="A288" t="str">
         <v>NATIONWIDE SEAFOODS PTY.LTD</v>
       </c>
-      <c r="B288" t="str">
-        <v>AUD</v>
+      <c r="B288" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone: 94168177_x000d_
+Fax: 94169177_x000d_
+Mobile: 409138223</v>
       </c>
       <c r="C288" t="str" xml:space="preserve">
         <v xml:space="preserve">60A OAKOVER ROAD_x000d_
 VIC PRESTON 3072_x000d_
 AUS</v>
       </c>
-      <c r="D288" t="str">
+      <c r="D288">
+        <v>94168177</v>
+      </c>
+      <c r="E288" t="str">
+        <v>88099105718</v>
+      </c>
+      <c r="F288" t="str">
         <v>60A OAKOVER ROAD</v>
       </c>
-      <c r="E288" t="str">
+      <c r="G288" t="str">
         <v>VIC</v>
       </c>
-      <c r="F288" t="str">
+      <c r="H288" t="str">
+        <v>PRESTON</v>
+      </c>
+      <c r="I288" t="str">
+        <v>3072</v>
+      </c>
+      <c r="J288" t="str">
         <v>AUS</v>
       </c>
-      <c r="G288" t="str" xml:space="preserve">
-        <v xml:space="preserve">Phone: 94168177_x000d_
-Fax: 94169177_x000d_
-Mobile: 409138223</v>
-      </c>
-      <c r="H288" t="str">
+      <c r="K288" t="str">
         <v>nationwide@nationwideseafood.com.au</v>
       </c>
     </row>
@@ -3933,26 +3753,20 @@
       <c r="A289" t="str">
         <v>NAVIA</v>
       </c>
-      <c r="B289" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
         <v>ND</v>
       </c>
-      <c r="B290" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
         <v>NEIGHBOURHOOD PEST CONTROL</v>
       </c>
-      <c r="B291" t="str">
-        <v>AUD</v>
-      </c>
-      <c r="K291">
+      <c r="E291" t="str">
+        <v>44716704978</v>
+      </c>
+      <c r="N291">
         <v>411801016</v>
       </c>
     </row>
@@ -3960,53 +3774,38 @@
       <c r="A292" t="str">
         <v>NEXCACU</v>
       </c>
-      <c r="B292" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
         <v>NIKOLAY GUSTOV</v>
       </c>
-      <c r="B293" t="str">
-        <v>AUD</v>
+      <c r="E293" t="str">
+        <v>90259164189</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
         <v>NISSAN FINANCIAL</v>
       </c>
-      <c r="B294" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
         <v>NMI</v>
       </c>
-      <c r="B295" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
         <v>O' BRIEN</v>
       </c>
-      <c r="B296" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
         <v>OBERON</v>
       </c>
-      <c r="B297" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C297" t="str">
         <v>BULGARIA</v>
       </c>
-      <c r="F297" t="str">
+      <c r="J297" t="str">
         <v>BULGARIA</v>
       </c>
     </row>
@@ -4015,62 +3814,68 @@
         <v>OCEANS 2 OCEANS</v>
       </c>
       <c r="B298" t="str">
-        <v>AUD</v>
+        <v>Phone: 386691490</v>
       </c>
       <c r="C298" t="str" xml:space="preserve">
         <v xml:space="preserve">56  Healey Road_x000d_
 Dandenong South</v>
       </c>
-      <c r="D298" t="str">
+      <c r="D298">
+        <v>386691490</v>
+      </c>
+      <c r="E298" t="str">
+        <v>97747354170</v>
+      </c>
+      <c r="F298" t="str">
         <v>56  Healey Road</v>
       </c>
-      <c r="G298" t="str">
-        <v>Phone: 386691490</v>
+      <c r="H298" t="str">
+        <v>Dandenong South</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
         <v>OFFICE SUPPLIES</v>
       </c>
-      <c r="B299" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
         <v>OFFICEWORKS</v>
       </c>
-      <c r="B300" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
         <v>OLIVERIA WHOLESALE</v>
       </c>
-      <c r="B301" t="str">
-        <v>AUD</v>
+      <c r="E301" t="str">
+        <v>21846074350</v>
       </c>
     </row>
     <row r="302" xml:space="preserve">
       <c r="A302" t="str">
         <v>OLSSONS PACIFIC SALT PTY LTD</v>
-      </c>
-      <c r="B302" t="str">
-        <v>AUD</v>
       </c>
       <c r="C302" t="str" xml:space="preserve">
         <v xml:space="preserve">19-25 NELSON RD_x000d_
 NSW YENNORA 2161_x000d_
 Australia</v>
       </c>
-      <c r="D302" t="str">
+      <c r="E302" t="str">
+        <v>46000130263</v>
+      </c>
+      <c r="F302" t="str">
         <v>19-25 NELSON RD</v>
       </c>
-      <c r="E302" t="str">
+      <c r="G302" t="str">
         <v>NSW</v>
       </c>
-      <c r="F302" t="str">
+      <c r="H302" t="str">
+        <v>YENNORA</v>
+      </c>
+      <c r="I302" t="str">
+        <v>2161</v>
+      </c>
+      <c r="J302" t="str">
         <v>Australia</v>
       </c>
     </row>
@@ -4078,21 +3883,21 @@
       <c r="A303" t="str">
         <v>ONE</v>
       </c>
-      <c r="B303" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
         <v>ONGUS PTY.LTD</v>
       </c>
       <c r="B304" t="str">
-        <v>AUD</v>
-      </c>
-      <c r="G304" t="str">
         <v>Phone: 405988793</v>
       </c>
-      <c r="K304" t="str">
+      <c r="D304">
+        <v>405988793</v>
+      </c>
+      <c r="E304" t="str">
+        <v>15142337077</v>
+      </c>
+      <c r="N304" t="str">
         <v>NIKOLAY</v>
       </c>
     </row>
@@ -4100,58 +3905,61 @@
       <c r="A305" t="str">
         <v>OOCL AUSTRALIA PTY LTD</v>
       </c>
-      <c r="B305" t="str">
-        <v>AUD</v>
+      <c r="E305" t="str">
+        <v>58003729244</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
         <v>ORI MENACHEM</v>
       </c>
-      <c r="B306" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
         <v>ORORA FIBRE PACKAGING</v>
       </c>
-      <c r="B307" t="str">
-        <v>AUD</v>
+      <c r="E307" t="str">
+        <v>55004275165</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
         <v>ORZEL POLSKA</v>
       </c>
-      <c r="B308" t="str">
-        <v>AUD</v>
+      <c r="E308" t="str">
+        <v>11111111111</v>
       </c>
     </row>
     <row r="309" xml:space="preserve">
       <c r="A309" t="str">
         <v>OVASTON ORGANICS</v>
       </c>
-      <c r="B309" t="str">
-        <v>AUD</v>
+      <c r="B309" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone: 746910188_x000d_
+Fax: 746910133</v>
       </c>
       <c r="C309" t="str" xml:space="preserve">
         <v xml:space="preserve">825 LINTHORPE VALLEY ROAD_x000d_
 QLD SOUTHBROOK 4363_x000d_
 AUS</v>
       </c>
-      <c r="D309" t="str">
+      <c r="D309">
+        <v>746910188</v>
+      </c>
+      <c r="F309" t="str">
         <v>825 LINTHORPE VALLEY ROAD</v>
       </c>
-      <c r="E309" t="str">
+      <c r="G309" t="str">
         <v>QLD</v>
       </c>
-      <c r="F309" t="str">
+      <c r="H309" t="str">
+        <v>SOUTHBROOK</v>
+      </c>
+      <c r="I309" t="str">
+        <v>4363</v>
+      </c>
+      <c r="J309" t="str">
         <v>AUS</v>
-      </c>
-      <c r="G309" t="str" xml:space="preserve">
-        <v xml:space="preserve">Phone: 746910188_x000d_
-Fax: 746910133</v>
       </c>
     </row>
     <row r="310" xml:space="preserve">
@@ -4159,7 +3967,7 @@
         <v>P&amp;O FOOD GROUP PTY LTD</v>
       </c>
       <c r="B310" t="str">
-        <v>AUD</v>
+        <v>Phone: 9290 6199</v>
       </c>
       <c r="C310" t="str" xml:space="preserve">
         <v xml:space="preserve">P&amp;O FOOD GROUP PTY LTD_x000d__x000d_
@@ -4167,20 +3975,29 @@
 PRESTON Victoria 3072_x000d_
 AU</v>
       </c>
-      <c r="D310" t="str" xml:space="preserve">
+      <c r="D310" t="str">
+        <v>9290 6199</v>
+      </c>
+      <c r="E310" t="str">
+        <v>73938300786</v>
+      </c>
+      <c r="F310" t="str" xml:space="preserve">
         <v xml:space="preserve">P&amp;O FOOD GROUP PTY LTD_x000d__x000d_
 48 QUINN ST</v>
       </c>
-      <c r="E310" t="str">
+      <c r="G310" t="str">
         <v>PRESTON</v>
       </c>
-      <c r="F310" t="str">
+      <c r="H310" t="str">
+        <v>Victoria</v>
+      </c>
+      <c r="I310" t="str">
+        <v>3072</v>
+      </c>
+      <c r="J310" t="str">
         <v>AU</v>
       </c>
-      <c r="G310" t="str">
-        <v>Phone: 9290 6199</v>
-      </c>
-      <c r="H310" t="str">
+      <c r="K310" t="str">
         <v>accounts@pofoodgroup.com.au</v>
       </c>
     </row>
@@ -4188,59 +4005,56 @@
       <c r="A311" t="str">
         <v>PACIFIC VINTNERS</v>
       </c>
-      <c r="B311" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
         <v>PACKAGING</v>
       </c>
-      <c r="B312" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
         <v>PASZKOWSKI PTY.LTD</v>
       </c>
-      <c r="B313" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
         <v>PAUL COX CHILD SUPPORT</v>
       </c>
-      <c r="B314" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="315" xml:space="preserve">
       <c r="A315" t="str">
         <v>PELMENI FOODS</v>
       </c>
-      <c r="B315" t="str">
-        <v>AUD</v>
+      <c r="B315" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone: 99172577_x000d_
+Mobile: 424196680</v>
       </c>
       <c r="C315" t="str" xml:space="preserve">
         <v xml:space="preserve">13 Teton crt_x000d_
 vic Highett 3190</v>
       </c>
-      <c r="D315" t="str">
+      <c r="D315">
+        <v>99172577</v>
+      </c>
+      <c r="E315" t="str">
+        <v>61089473914</v>
+      </c>
+      <c r="F315" t="str">
         <v>13 Teton crt</v>
       </c>
-      <c r="E315" t="str">
+      <c r="G315" t="str">
         <v>vic</v>
       </c>
-      <c r="G315" t="str" xml:space="preserve">
-        <v xml:space="preserve">Phone: 99172577_x000d_
-Mobile: 424196680</v>
-      </c>
       <c r="H315" t="str">
+        <v>Highett</v>
+      </c>
+      <c r="I315" t="str">
+        <v>3190</v>
+      </c>
+      <c r="K315" t="str">
         <v>mail@pelmeni.com.au</v>
       </c>
-      <c r="I315" t="str">
+      <c r="L315" t="str">
         <v>http://www.harigon.com.au</v>
       </c>
     </row>
@@ -4248,44 +4062,38 @@
       <c r="A316" t="str">
         <v>PHOTOROOM</v>
       </c>
-      <c r="B316" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
         <v>PLASDENE</v>
       </c>
-      <c r="B317" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
         <v>PM REFRIGERATION</v>
       </c>
-      <c r="B318" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="319" xml:space="preserve">
       <c r="A319" t="str">
         <v>POLAN POLISH-FRENCH COMPANY</v>
       </c>
-      <c r="B319" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C319" t="str" xml:space="preserve">
         <v xml:space="preserve">zabro_x000d_
 poland</v>
       </c>
-      <c r="F319" t="str">
+      <c r="E319" t="str">
+        <v>11000000000</v>
+      </c>
+      <c r="H319" t="str">
+        <v>zabro</v>
+      </c>
+      <c r="J319" t="str">
         <v>poland</v>
       </c>
-      <c r="H319" t="str">
+      <c r="K319" t="str">
         <v>polan@polan.com</v>
       </c>
-      <c r="I319" t="str">
+      <c r="L319" t="str">
         <v>http://www.polan.pl</v>
       </c>
     </row>
@@ -4293,32 +4101,26 @@
       <c r="A320" t="str">
         <v>POLYFOAM</v>
       </c>
-      <c r="B320" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
         <v>POWERDIRECT</v>
       </c>
-      <c r="B321" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
         <v>PRI HANI PICKLES LTD</v>
       </c>
-      <c r="B322" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C322" t="str">
         <v>ISRAEL</v>
       </c>
-      <c r="F322" t="str">
+      <c r="E322" t="str">
+        <v>11111111111</v>
+      </c>
+      <c r="J322" t="str">
         <v>ISRAEL</v>
       </c>
-      <c r="H322" t="str">
+      <c r="K322" t="str">
         <v>prihen@walla.com</v>
       </c>
     </row>
@@ -4326,49 +4128,40 @@
       <c r="A323" t="str">
         <v>PRI-CUT FRUIT AND VEGETABLES</v>
       </c>
-      <c r="B323" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
         <v>PTA LOGISTICS AUSTRALIA</v>
       </c>
-      <c r="B324" t="str">
-        <v>AUD</v>
+      <c r="E324" t="str">
+        <v>69606991039</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
         <v>QA SUPPLIES</v>
       </c>
-      <c r="B325" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="326" xml:space="preserve">
       <c r="A326" t="str">
         <v>QITAF</v>
       </c>
       <c r="B326" t="str">
-        <v>AUD</v>
+        <v>Mobile: +970598713097</v>
       </c>
       <c r="C326" t="str" xml:space="preserve">
         <v xml:space="preserve">QITAF_x000d__x000d_
 Jiftlik - Jericho_x000d_
 PS</v>
       </c>
-      <c r="D326" t="str" xml:space="preserve">
+      <c r="F326" t="str" xml:space="preserve">
         <v xml:space="preserve">QITAF_x000d__x000d_
 Jiftlik - Jericho</v>
       </c>
-      <c r="F326" t="str">
+      <c r="J326" t="str">
         <v>PS</v>
       </c>
-      <c r="G326" t="str">
-        <v>Mobile: +970598713097</v>
-      </c>
-      <c r="H326" t="str">
+      <c r="K326" t="str">
         <v>hassan.ish@qitafco.com</v>
       </c>
     </row>
@@ -4376,16 +4169,17 @@
       <c r="A327" t="str">
         <v>QSRFRESH</v>
       </c>
-      <c r="B327" t="str">
-        <v>AUD</v>
+      <c r="E327" t="str">
+        <v>81160439243</v>
       </c>
     </row>
     <row r="328" xml:space="preserve">
       <c r="A328" t="str">
         <v>QUINTESSENCE FOODS PTY LTD</v>
       </c>
-      <c r="B328" t="str">
-        <v>AUD</v>
+      <c r="B328" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone: +61 8 7200 2699_x000d_
+Mobile: +61 456 448 274</v>
       </c>
       <c r="C328" t="str" xml:space="preserve">
         <v xml:space="preserve">Quintessence Foods Pty Ltd_x000d__x000d_
@@ -4393,21 +4187,26 @@
 Nuriootpa South Australia 5252_x000d_
 AU</v>
       </c>
-      <c r="D328" t="str" xml:space="preserve">
+      <c r="D328" t="str">
+        <v>+61 8 7200 2699</v>
+      </c>
+      <c r="F328" t="str" xml:space="preserve">
         <v xml:space="preserve">Quintessence Foods Pty Ltd_x000d__x000d_
 Production Precinct Beckwith Park</v>
       </c>
-      <c r="E328" t="str">
+      <c r="G328" t="str">
         <v>Nuriootpa</v>
       </c>
-      <c r="F328" t="str">
+      <c r="H328" t="str">
+        <v>South Australia</v>
+      </c>
+      <c r="I328" t="str">
+        <v>5252</v>
+      </c>
+      <c r="J328" t="str">
         <v>AU</v>
       </c>
-      <c r="G328" t="str" xml:space="preserve">
-        <v xml:space="preserve">Phone: +61 8 7200 2699_x000d_
-Mobile: +61 456 448 274</v>
-      </c>
-      <c r="H328" t="str">
+      <c r="K328" t="str">
         <v>andrew@relishthebarossa.com.au</v>
       </c>
     </row>
@@ -4416,7 +4215,7 @@
         <v>R.S IMPORT EXPORT CO LTD</v>
       </c>
       <c r="B329" t="str">
-        <v>AUD</v>
+        <v>Phone: 25852552</v>
       </c>
       <c r="C329" t="str" xml:space="preserve">
         <v xml:space="preserve">18078_x000d_
@@ -4424,15 +4223,21 @@
 Israel</v>
       </c>
       <c r="D329">
+        <v>25852552</v>
+      </c>
+      <c r="E329" t="str">
+        <v>11111111111</v>
+      </c>
+      <c r="F329">
         <v>18078</v>
       </c>
-      <c r="F329" t="str">
+      <c r="H329" t="str">
+        <v>JERUSALEM</v>
+      </c>
+      <c r="J329" t="str">
         <v>Israel</v>
       </c>
-      <c r="G329" t="str">
-        <v>Phone: 25852552</v>
-      </c>
-      <c r="H329" t="str">
+      <c r="K329" t="str">
         <v>rsimport@bezeqint.net</v>
       </c>
     </row>
@@ -4440,32 +4245,23 @@
       <c r="A330" t="str">
         <v>RACV-INSURANCE</v>
       </c>
-      <c r="B330" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
         <v>RAILER</v>
       </c>
-      <c r="B331" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
         <v>RASAGRA</v>
       </c>
-      <c r="B332" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
         <v>RED SALT AUSTRALIA P/L</v>
       </c>
-      <c r="B333" t="str">
-        <v>AUD</v>
+      <c r="E333" t="str">
+        <v>40512672964</v>
       </c>
     </row>
     <row r="334" xml:space="preserve">
@@ -4473,25 +4269,34 @@
         <v>REGERA HOLDINGS</v>
       </c>
       <c r="B334" t="str">
-        <v>AUD</v>
+        <v>Phone: 434095572</v>
       </c>
       <c r="C334" t="str" xml:space="preserve">
         <v xml:space="preserve">21 ALLIED DRIVE_x000d_
 VIC TULLAMARINE 3043</v>
       </c>
-      <c r="D334" t="str">
+      <c r="D334">
+        <v>434095572</v>
+      </c>
+      <c r="E334" t="str">
+        <v>12917525905</v>
+      </c>
+      <c r="F334" t="str">
         <v>21 ALLIED DRIVE</v>
       </c>
-      <c r="E334" t="str">
+      <c r="G334" t="str">
         <v>VIC</v>
       </c>
-      <c r="G334" t="str">
-        <v>Phone: 434095572</v>
-      </c>
       <c r="H334" t="str">
+        <v>TULLAMARINE</v>
+      </c>
+      <c r="I334" t="str">
+        <v>3043</v>
+      </c>
+      <c r="K334" t="str">
         <v>chris_avfm@hotmail.com</v>
       </c>
-      <c r="K334" t="str">
+      <c r="N334" t="str">
         <v>chris</v>
       </c>
     </row>
@@ -4499,16 +4304,17 @@
       <c r="A335" t="str">
         <v>REGION MANOR PTY. LTD</v>
       </c>
-      <c r="B335" t="str">
-        <v>AUD</v>
+      <c r="E335" t="str">
+        <v>58860685387</v>
       </c>
     </row>
     <row r="336" xml:space="preserve">
       <c r="A336" t="str">
         <v>RELISH THE BAROSSA</v>
       </c>
-      <c r="B336" t="str">
-        <v>AUD</v>
+      <c r="B336" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone: +61 8 7200 2699_x000d_
+Mobile: +61 456 448 274</v>
       </c>
       <c r="C336" t="str" xml:space="preserve">
         <v xml:space="preserve">RELISH THE BAROSSA_x000d__x000d_
@@ -4516,21 +4322,26 @@
 NORIOOTPA South Australia 5252_x000d_
 AU</v>
       </c>
-      <c r="D336" t="str" xml:space="preserve">
+      <c r="D336" t="str">
+        <v>+61 8 7200 2699</v>
+      </c>
+      <c r="F336" t="str" xml:space="preserve">
         <v xml:space="preserve">RELISH THE BAROSSA_x000d__x000d_
 PRODUCTION PRECINCT BECKWITH PARK</v>
       </c>
-      <c r="E336" t="str">
+      <c r="G336" t="str">
         <v>NORIOOTPA</v>
       </c>
-      <c r="F336" t="str">
+      <c r="H336" t="str">
+        <v>South Australia</v>
+      </c>
+      <c r="I336" t="str">
+        <v>5252</v>
+      </c>
+      <c r="J336" t="str">
         <v>AU</v>
       </c>
-      <c r="G336" t="str" xml:space="preserve">
-        <v xml:space="preserve">Phone: +61 8 7200 2699_x000d_
-Mobile: +61 456 448 274</v>
-      </c>
-      <c r="H336" t="str">
+      <c r="K336" t="str">
         <v>andrew@relishthebarossa.com.au</v>
       </c>
     </row>
@@ -4538,61 +4349,49 @@
       <c r="A337" t="str">
         <v>REMEDY FLOOR PTY LTD</v>
       </c>
-      <c r="B337" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
         <v>RENT</v>
       </c>
-      <c r="B338" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
         <v>REPCO</v>
       </c>
-      <c r="B339" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
         <v>REST-SUPER</v>
       </c>
-      <c r="B340" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
         <v>RESTSUPPER</v>
       </c>
-      <c r="B341" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="342" xml:space="preserve">
       <c r="A342" t="str">
         <v>RIALIA PTY LTD</v>
-      </c>
-      <c r="B342" t="str">
-        <v>AUD</v>
       </c>
       <c r="C342" t="str" xml:space="preserve">
         <v xml:space="preserve">129 BURSWOOD ROAD_x000d_
 WA BURSWOOD 6100_x000d_
 Austria</v>
       </c>
-      <c r="D342" t="str">
+      <c r="F342" t="str">
         <v>129 BURSWOOD ROAD</v>
       </c>
-      <c r="E342" t="str">
+      <c r="G342" t="str">
         <v>WA</v>
       </c>
-      <c r="F342" t="str">
+      <c r="H342" t="str">
+        <v>BURSWOOD</v>
+      </c>
+      <c r="I342" t="str">
+        <v>6100</v>
+      </c>
+      <c r="J342" t="str">
         <v>Austria</v>
       </c>
     </row>
@@ -4600,20 +4399,26 @@
       <c r="A343" t="str">
         <v>RIOS LIFESTYLE PHARMA PTY. LTD</v>
       </c>
-      <c r="B343" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C343" t="str" xml:space="preserve">
         <v xml:space="preserve">PO BOX 3224_x000d_
 VIC PRAHRAN 3181</v>
       </c>
-      <c r="D343" t="str">
+      <c r="E343" t="str">
+        <v>88208225688</v>
+      </c>
+      <c r="F343" t="str">
         <v>PO BOX 3224</v>
       </c>
-      <c r="E343" t="str">
+      <c r="G343" t="str">
         <v>VIC</v>
       </c>
-      <c r="K343" t="str">
+      <c r="H343" t="str">
+        <v>PRAHRAN</v>
+      </c>
+      <c r="I343" t="str">
+        <v>3181</v>
+      </c>
+      <c r="N343" t="str">
         <v>WALLACE</v>
       </c>
     </row>
@@ -4622,26 +4427,35 @@
         <v>RIPPONLEA FISH SUPPLY</v>
       </c>
       <c r="B344" t="str">
-        <v>AUD</v>
+        <v>Phone: 95285625</v>
       </c>
       <c r="C344" t="str" xml:space="preserve">
         <v xml:space="preserve">49 GLEN EIRA ROAD_x000d_
 VIC RIPPONLEA 3185_x000d_
 AUS</v>
       </c>
-      <c r="D344" t="str">
+      <c r="D344">
+        <v>95285625</v>
+      </c>
+      <c r="E344" t="str">
+        <v>26735857030</v>
+      </c>
+      <c r="F344" t="str">
         <v>49 GLEN EIRA ROAD</v>
       </c>
-      <c r="E344" t="str">
+      <c r="G344" t="str">
         <v>VIC</v>
       </c>
-      <c r="F344" t="str">
+      <c r="H344" t="str">
+        <v>RIPPONLEA</v>
+      </c>
+      <c r="I344" t="str">
+        <v>3185</v>
+      </c>
+      <c r="J344" t="str">
         <v>AUS</v>
       </c>
-      <c r="G344" t="str">
-        <v>Phone: 95285625</v>
-      </c>
-      <c r="K344" t="str">
+      <c r="N344" t="str">
         <v>JOHN</v>
       </c>
     </row>
@@ -4649,24 +4463,33 @@
       <c r="A345" t="str">
         <v>RIVERINA OILS &amp; BIO ENERGY PTY LIMITED</v>
       </c>
-      <c r="B345" t="str">
-        <v>AUD</v>
+      <c r="B345" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone: 90788324_x000d_
+Fax: 90788325</v>
       </c>
       <c r="C345" t="str" xml:space="preserve">
         <v xml:space="preserve">8/7 CHAMBERS ROAD_x000d_
 VIC ALTONA NORTH 3025</v>
       </c>
-      <c r="D345" t="str">
+      <c r="D345">
+        <v>90788324</v>
+      </c>
+      <c r="E345" t="str">
+        <v>25103697703</v>
+      </c>
+      <c r="F345" t="str">
         <v>8/7 CHAMBERS ROAD</v>
       </c>
-      <c r="E345" t="str">
+      <c r="G345" t="str">
         <v>VIC</v>
       </c>
-      <c r="G345" t="str" xml:space="preserve">
-        <v xml:space="preserve">Phone: 90788324_x000d_
-Fax: 90788325</v>
+      <c r="H345" t="str">
+        <v>ALTONA NORTH</v>
       </c>
       <c r="I345" t="str">
+        <v>3025</v>
+      </c>
+      <c r="L345" t="str">
         <v>http://www.shermanoil.com.au</v>
       </c>
     </row>
@@ -4674,10 +4497,10 @@
       <c r="A346" t="str">
         <v>RIVONA</v>
       </c>
-      <c r="B346" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C346" t="str">
+        <v>VILNUS</v>
+      </c>
+      <c r="H346" t="str">
         <v>VILNUS</v>
       </c>
     </row>
@@ -4686,20 +4509,26 @@
         <v>ROADMASTER</v>
       </c>
       <c r="B347" t="str">
-        <v>AUD</v>
+        <v>Phone: 02-98526699</v>
       </c>
       <c r="C347" t="str" xml:space="preserve">
         <v xml:space="preserve">21 RIVERSTONE_x000d_
 NSW 2765</v>
       </c>
       <c r="D347" t="str">
+        <v>02-98526699</v>
+      </c>
+      <c r="E347" t="str">
+        <v>93281087098</v>
+      </c>
+      <c r="F347" t="str">
         <v>21 RIVERSTONE</v>
       </c>
-      <c r="E347" t="str">
+      <c r="G347" t="str">
         <v>NSW</v>
       </c>
-      <c r="G347" t="str">
-        <v>Phone: 02-98526699</v>
+      <c r="I347" t="str">
+        <v>2765</v>
       </c>
     </row>
     <row r="348">
@@ -4707,20 +4536,23 @@
         <v>ROHLIG LOGISTICS</v>
       </c>
       <c r="B348" t="str">
-        <v>AUD</v>
-      </c>
-      <c r="G348" t="str">
         <v>Phone: (03) 93943799</v>
+      </c>
+      <c r="D348" t="str">
+        <v>(03) 93943799</v>
+      </c>
+      <c r="E348" t="str">
+        <v>51001191402</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
         <v>ROSTRADE PTY LTD</v>
       </c>
-      <c r="B349" t="str">
-        <v>AUD</v>
-      </c>
-      <c r="H349" t="str">
+      <c r="E349" t="str">
+        <v>47162026253</v>
+      </c>
+      <c r="K349" t="str">
         <v>dmitry@rostrade.com.au</v>
       </c>
     </row>
@@ -4728,24 +4560,15 @@
       <c r="A350" t="str">
         <v>ROY YOUSSIEF</v>
       </c>
-      <c r="B350" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
         <v>ROYAL NUT CO</v>
       </c>
-      <c r="B351" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="352" xml:space="preserve">
       <c r="A352" t="str">
         <v>ROYAL NUT COMPANY</v>
-      </c>
-      <c r="B352" t="str">
-        <v>AUD</v>
       </c>
       <c r="C352" t="str" xml:space="preserve">
         <v xml:space="preserve">ROYAL NUT COMPANY_x000d__x000d_
@@ -4753,14 +4576,20 @@
 SCORESBY Victoria 3179_x000d_
 AU</v>
       </c>
-      <c r="D352" t="str" xml:space="preserve">
+      <c r="F352" t="str" xml:space="preserve">
         <v xml:space="preserve">ROYAL NUT COMPANY_x000d__x000d_
 19 ROCCO DR</v>
       </c>
-      <c r="E352" t="str">
+      <c r="G352" t="str">
         <v>SCORESBY</v>
       </c>
-      <c r="F352" t="str">
+      <c r="H352" t="str">
+        <v>Victoria</v>
+      </c>
+      <c r="I352" t="str">
+        <v>3179</v>
+      </c>
+      <c r="J352" t="str">
         <v>AU</v>
       </c>
     </row>
@@ -4769,24 +4598,24 @@
         <v>RS IMPORT EXPORT CO. LTD</v>
       </c>
       <c r="B353" t="str">
-        <v>AUD</v>
+        <v>Phone: 02 5852552</v>
       </c>
       <c r="C353" t="str" xml:space="preserve">
         <v xml:space="preserve">RS IMPORT EXPORT CO. LTD_x000d__x000d_
 PO BOX 18078 JERUSALEM_x000d_
 IL</v>
       </c>
-      <c r="D353" t="str" xml:space="preserve">
+      <c r="D353" t="str">
+        <v>02 5852552</v>
+      </c>
+      <c r="F353" t="str" xml:space="preserve">
         <v xml:space="preserve">RS IMPORT EXPORT CO. LTD_x000d__x000d_
 PO BOX 18078 JERUSALEM</v>
       </c>
-      <c r="F353" t="str">
+      <c r="J353" t="str">
         <v>IL</v>
       </c>
-      <c r="G353" t="str">
-        <v>Phone: 02 5852552</v>
-      </c>
-      <c r="H353" t="str">
+      <c r="K353" t="str">
         <v>rsimport@bezeqint.net</v>
       </c>
     </row>
@@ -4794,17 +4623,20 @@
       <c r="A354" t="str">
         <v>RUSSIAN BLACK PEARL</v>
       </c>
-      <c r="B354" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C354" t="str" xml:space="preserve">
         <v xml:space="preserve">NY BROOKLYN] 11204_x000d_
 USA</v>
       </c>
-      <c r="E354" t="str">
+      <c r="G354" t="str">
         <v>NY</v>
       </c>
-      <c r="F354" t="str">
+      <c r="H354" t="str">
+        <v>BROOKLYN]</v>
+      </c>
+      <c r="I354" t="str">
+        <v>11204</v>
+      </c>
+      <c r="J354" t="str">
         <v>USA</v>
       </c>
     </row>
@@ -4813,29 +4645,38 @@
         <v>RUSSKIS DELI</v>
       </c>
       <c r="B355" t="str">
-        <v>AUD</v>
+        <v>Phone: 293876313</v>
       </c>
       <c r="C355" t="str" xml:space="preserve">
         <v xml:space="preserve">131 BONDI ROAD_x000d_
 NSW BONDI 2026_x000d_
 AUS</v>
       </c>
-      <c r="D355" t="str">
+      <c r="D355">
+        <v>293876313</v>
+      </c>
+      <c r="E355" t="str">
+        <v>36105367146</v>
+      </c>
+      <c r="F355" t="str">
         <v>131 BONDI ROAD</v>
       </c>
-      <c r="E355" t="str">
+      <c r="G355" t="str">
         <v>NSW</v>
       </c>
-      <c r="F355" t="str">
+      <c r="H355" t="str">
+        <v>BONDI</v>
+      </c>
+      <c r="I355" t="str">
+        <v>2026</v>
+      </c>
+      <c r="J355" t="str">
         <v>AUS</v>
       </c>
-      <c r="G355" t="str">
-        <v>Phone: 293876313</v>
-      </c>
-      <c r="H355" t="str">
+      <c r="K355" t="str">
         <v>info@yummyandnatural.com</v>
       </c>
-      <c r="K355" t="str">
+      <c r="N355" t="str">
         <v>ALAN</v>
       </c>
     </row>
@@ -4843,8 +4684,9 @@
       <c r="A356" t="str">
         <v>SABI Foods</v>
       </c>
-      <c r="B356" t="str">
-        <v>AUD</v>
+      <c r="B356" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone: 3 9767 6666_x000d_
+Fax: 3 9767 6688</v>
       </c>
       <c r="C356" t="str" xml:space="preserve">
         <v xml:space="preserve">31-35 Letcon Drive_x000d_
@@ -4852,19 +4694,24 @@
 Australia</v>
       </c>
       <c r="D356" t="str">
+        <v>3 9767 6666</v>
+      </c>
+      <c r="F356" t="str">
         <v>31-35 Letcon Drive</v>
       </c>
-      <c r="E356" t="str">
+      <c r="G356" t="str">
         <v>VIC</v>
       </c>
-      <c r="F356" t="str">
+      <c r="H356" t="str">
+        <v>Dandenong South</v>
+      </c>
+      <c r="I356" t="str">
+        <v>3164</v>
+      </c>
+      <c r="J356" t="str">
         <v>Australia</v>
       </c>
-      <c r="G356" t="str" xml:space="preserve">
-        <v xml:space="preserve">Phone: 3 9767 6666_x000d_
-Fax: 3 9767 6688</v>
-      </c>
-      <c r="H356" t="str">
+      <c r="K356" t="str">
         <v>sales@sabifood.com</v>
       </c>
     </row>
@@ -4872,80 +4719,59 @@
       <c r="A357" t="str">
         <v>SADY-POLAND</v>
       </c>
-      <c r="B357" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
         <v>SAFETY XPRESS</v>
       </c>
-      <c r="B358" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
         <v>SALES BONUS</v>
       </c>
-      <c r="B359" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
         <v>SALES CAR REGO</v>
       </c>
-      <c r="B360" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="361">
       <c r="A361" t="str">
         <v>SALES CAR SERVICE</v>
       </c>
-      <c r="B361" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="362">
       <c r="A362" t="str">
         <v>SALES TRAVEL</v>
       </c>
-      <c r="B362" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
         <v>SAMPLES</v>
       </c>
-      <c r="B363" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="364">
       <c r="A364" t="str">
         <v>SANDRO PTY.LTD</v>
       </c>
-      <c r="B364" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="365">
       <c r="A365" t="str">
         <v>SANZ MARKETING GROUP PTY LTD</v>
       </c>
       <c r="B365" t="str">
-        <v>AUD</v>
-      </c>
-      <c r="G365" t="str">
         <v>Phone: 412609883</v>
       </c>
-      <c r="H365" t="str">
+      <c r="D365">
+        <v>412609883</v>
+      </c>
+      <c r="E365" t="str">
+        <v>80113690083</v>
+      </c>
+      <c r="K365" t="str">
         <v>jamal@clearanceking.com.au</v>
       </c>
-      <c r="K365" t="str">
+      <c r="N365" t="str">
         <v>Jamal Ganatra</v>
       </c>
     </row>
@@ -4953,72 +4779,66 @@
       <c r="A366" t="str">
         <v>SCANDIA FOODS ROMANIA</v>
       </c>
-      <c r="B366" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="367">
       <c r="A367" t="str">
         <v>SCORPTEC COMPUTERS</v>
       </c>
-      <c r="B367" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="368">
       <c r="A368" t="str">
         <v>SEACAVE ARTWORK</v>
       </c>
-      <c r="B368" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="369">
       <c r="A369" t="str">
         <v>SEAWAY</v>
       </c>
-      <c r="B369" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="370">
       <c r="A370" t="str">
         <v>SEEK LIMITED</v>
       </c>
-      <c r="B370" t="str">
-        <v>AUD</v>
+      <c r="E370" t="str">
+        <v>46080075314</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="str">
         <v>SENSIS PTY</v>
       </c>
-      <c r="B371" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="372" xml:space="preserve">
       <c r="A372" t="str">
         <v>SEVEN SEAS SEAFOODS PTY LTD</v>
       </c>
-      <c r="B372" t="str">
-        <v>AUD</v>
+      <c r="B372" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone: 93620260_x000d_
+Fax: 93620556</v>
       </c>
       <c r="C372" t="str" xml:space="preserve">
         <v xml:space="preserve">24 HUGHES STREET_x000d_
 VIC YARRAVILLE 3013</v>
       </c>
-      <c r="D372" t="str">
+      <c r="D372">
+        <v>93620260</v>
+      </c>
+      <c r="E372" t="str">
+        <v>36537360721</v>
+      </c>
+      <c r="F372" t="str">
         <v>24 HUGHES STREET</v>
       </c>
-      <c r="E372" t="str">
+      <c r="G372" t="str">
         <v>VIC</v>
       </c>
-      <c r="G372" t="str" xml:space="preserve">
-        <v xml:space="preserve">Phone: 93620260_x000d_
-Fax: 93620556</v>
-      </c>
-      <c r="K372" t="str">
+      <c r="H372" t="str">
+        <v>YARRAVILLE</v>
+      </c>
+      <c r="I372" t="str">
+        <v>3013</v>
+      </c>
+      <c r="N372" t="str">
         <v>DAVID</v>
       </c>
     </row>
@@ -5026,21 +4846,21 @@
       <c r="A373" t="str">
         <v>SGL AUSTRALIA</v>
       </c>
-      <c r="B373" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="374">
       <c r="A374" t="str">
         <v>SHAZAMI IMPORTS PTY LTD</v>
       </c>
       <c r="B374" t="str">
-        <v>AUD</v>
-      </c>
-      <c r="G374" t="str">
         <v>Phone: 418133316</v>
       </c>
-      <c r="K374" t="str">
+      <c r="D374">
+        <v>418133316</v>
+      </c>
+      <c r="E374" t="str">
+        <v>97159699957</v>
+      </c>
+      <c r="N374" t="str">
         <v>MANDY</v>
       </c>
     </row>
@@ -5048,20 +4868,23 @@
       <c r="A375" t="str">
         <v>SHELACH YEZAMUT LTD</v>
       </c>
-      <c r="B375" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C375" t="str" xml:space="preserve">
         <v xml:space="preserve">HAIFA_x000d_
 Australia</v>
       </c>
-      <c r="F375" t="str">
+      <c r="E375" t="str">
+        <v>89561909029</v>
+      </c>
+      <c r="H375" t="str">
+        <v>HAIFA</v>
+      </c>
+      <c r="J375" t="str">
         <v>Australia</v>
       </c>
-      <c r="J375" t="str">
+      <c r="M375" t="str">
         <v>012-657 321473677</v>
       </c>
-      <c r="K375" t="str">
+      <c r="N375" t="str">
         <v>Shmuel</v>
       </c>
     </row>
@@ -5070,7 +4893,7 @@
         <v>SHERMAN FOODS PTY LTD</v>
       </c>
       <c r="B376" t="str">
-        <v>AUD</v>
+        <v>Phone: 390788324</v>
       </c>
       <c r="C376" t="str" xml:space="preserve">
         <v xml:space="preserve">SHERMAN FOODS PTY LTD_x000d__x000d_
@@ -5078,26 +4901,29 @@
 ALTONA NORTH Victoria 3025_x000d_
 AU</v>
       </c>
-      <c r="D376" t="str" xml:space="preserve">
+      <c r="D376">
+        <v>390788324</v>
+      </c>
+      <c r="F376" t="str" xml:space="preserve">
         <v xml:space="preserve">SHERMAN FOODS PTY LTD_x000d__x000d_
 7-9 CHAMBERS ROAD</v>
       </c>
-      <c r="E376" t="str">
+      <c r="G376" t="str">
         <v>ALTONA NORTH</v>
       </c>
-      <c r="F376" t="str">
+      <c r="H376" t="str">
+        <v>Victoria</v>
+      </c>
+      <c r="I376" t="str">
+        <v>3025</v>
+      </c>
+      <c r="J376" t="str">
         <v>AU</v>
-      </c>
-      <c r="G376" t="str">
-        <v>Phone: 390788324</v>
       </c>
     </row>
     <row r="377" xml:space="preserve">
       <c r="A377" t="str">
         <v>SIA BALTAS NAKTIS</v>
-      </c>
-      <c r="B377" t="str">
-        <v>AUD</v>
       </c>
       <c r="C377" t="str" xml:space="preserve">
         <v xml:space="preserve">SIA BALTAS NAKTIS_x000d__x000d_
@@ -5105,14 +4931,17 @@
 Kekavas novad 2112_x000d_
 LV</v>
       </c>
-      <c r="D377" t="str" xml:space="preserve">
+      <c r="F377" t="str" xml:space="preserve">
         <v xml:space="preserve">SIA BALTAS NAKTIS_x000d__x000d_
 Berzu iela t4, Baloii</v>
       </c>
-      <c r="E377" t="str">
+      <c r="G377" t="str">
         <v>Kekavas novad</v>
       </c>
-      <c r="F377" t="str">
+      <c r="I377" t="str">
+        <v>2112</v>
+      </c>
+      <c r="J377" t="str">
         <v>LV</v>
       </c>
     </row>
@@ -5121,7 +4950,7 @@
         <v>SIA SFT Seafood</v>
       </c>
       <c r="B378" t="str">
-        <v>AUD</v>
+        <v>Phone: +37129998231</v>
       </c>
       <c r="C378" t="str" xml:space="preserve">
         <v xml:space="preserve">SIA SFT Seafood_x000d__x000d_
@@ -5129,20 +4958,23 @@
 Riga 1046_x000d_
 LV</v>
       </c>
-      <c r="D378" t="str" xml:space="preserve">
+      <c r="D378" t="str">
+        <v>+37129998231</v>
+      </c>
+      <c r="F378" t="str" xml:space="preserve">
         <v xml:space="preserve">SIA SFT Seafood_x000d__x000d_
 Jtirkalnes iela 15</v>
       </c>
-      <c r="E378" t="str">
+      <c r="G378" t="str">
         <v>Riga</v>
       </c>
-      <c r="F378" t="str">
+      <c r="I378" t="str">
+        <v>1046</v>
+      </c>
+      <c r="J378" t="str">
         <v>LV</v>
       </c>
-      <c r="G378" t="str">
-        <v>Phone: +37129998231</v>
-      </c>
-      <c r="H378" t="str">
+      <c r="K378" t="str">
         <v>nv@sftseafood.com</v>
       </c>
     </row>
@@ -5151,7 +4983,7 @@
         <v>Six-Eyed Scorpion</v>
       </c>
       <c r="B379" t="str">
-        <v>AUD</v>
+        <v>Mobile: 0411286656</v>
       </c>
       <c r="C379" t="str" xml:space="preserve">
         <v xml:space="preserve">Six-Eyed Scorpion_x000d__x000d_
@@ -5159,20 +4991,23 @@
 Coburg North Victoria 3058_x000d_
 AU</v>
       </c>
-      <c r="D379" t="str" xml:space="preserve">
+      <c r="F379" t="str" xml:space="preserve">
         <v xml:space="preserve">Six-Eyed Scorpion_x000d__x000d_
 18 Lens St</v>
       </c>
-      <c r="E379" t="str">
+      <c r="G379" t="str">
         <v>Coburg North</v>
       </c>
-      <c r="F379" t="str">
+      <c r="H379" t="str">
+        <v>Victoria</v>
+      </c>
+      <c r="I379" t="str">
+        <v>3058</v>
+      </c>
+      <c r="J379" t="str">
         <v>AU</v>
       </c>
-      <c r="G379" t="str">
-        <v>Mobile: 0411286656</v>
-      </c>
-      <c r="H379" t="str">
+      <c r="K379" t="str">
         <v>info@sixeyedscorpion.com</v>
       </c>
     </row>
@@ -5180,32 +5015,20 @@
       <c r="A380" t="str">
         <v>SKI DESIGNER LIVING</v>
       </c>
-      <c r="B380" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="381">
       <c r="A381" t="str">
         <v>SLOMAX GROUP</v>
       </c>
-      <c r="B381" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="382">
       <c r="A382" t="str">
         <v>SMCA</v>
       </c>
-      <c r="B382" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="383" xml:space="preserve">
       <c r="A383" t="str">
         <v>SMITH TRADING PTY LTD</v>
-      </c>
-      <c r="B383" t="str">
-        <v>AUD</v>
       </c>
       <c r="C383" t="str" xml:space="preserve">
         <v xml:space="preserve">SMITH TRADING PTY LTD_x000d__x000d_
@@ -5213,17 +5036,23 @@
 SUNSHINE NORTH Victoria 3020_x000d_
 AU</v>
       </c>
-      <c r="D383" t="str" xml:space="preserve">
+      <c r="F383" t="str" xml:space="preserve">
         <v xml:space="preserve">SMITH TRADING PTY LTD_x000d__x000d_
 18 MAIDA AVE</v>
       </c>
-      <c r="E383" t="str">
+      <c r="G383" t="str">
         <v>SUNSHINE NORTH</v>
       </c>
-      <c r="F383" t="str">
+      <c r="H383" t="str">
+        <v>Victoria</v>
+      </c>
+      <c r="I383" t="str">
+        <v>3020</v>
+      </c>
+      <c r="J383" t="str">
         <v>AU</v>
       </c>
-      <c r="L383" t="str">
+      <c r="O383" t="str">
         <v>SMITH TRADING PTY LTD</v>
       </c>
     </row>
@@ -5231,16 +5060,13 @@
       <c r="A384" t="str">
         <v>SOGDA LIMITED,INC</v>
       </c>
-      <c r="B384" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="385">
       <c r="A385" t="str">
         <v>SOS PEST CONTROL</v>
       </c>
-      <c r="B385" t="str">
-        <v>AUD</v>
+      <c r="E385" t="str">
+        <v>13426606234</v>
       </c>
     </row>
     <row r="386" xml:space="preserve">
@@ -5248,22 +5074,28 @@
         <v>SOULFRESH PTY. LTD</v>
       </c>
       <c r="B386" t="str">
-        <v>AUD</v>
+        <v>Phone: 94167165</v>
       </c>
       <c r="C386" t="str" xml:space="preserve">
         <v xml:space="preserve">unit 4/28-50 CYANAMID STREET_x000d_
 VIC LAVERTON NORTH</v>
       </c>
-      <c r="D386" t="str">
+      <c r="D386">
+        <v>94167165</v>
+      </c>
+      <c r="E386" t="str">
+        <v>79603119688</v>
+      </c>
+      <c r="F386" t="str">
         <v>unit 4/28-50 CYANAMID STREET</v>
       </c>
-      <c r="E386" t="str">
+      <c r="G386" t="str">
         <v>VIC</v>
       </c>
-      <c r="G386" t="str">
-        <v>Phone: 94167165</v>
-      </c>
-      <c r="K386" t="str">
+      <c r="H386" t="str">
+        <v>LAVERTON NORTH</v>
+      </c>
+      <c r="N386" t="str">
         <v>JEFF</v>
       </c>
     </row>
@@ -5271,153 +5103,117 @@
       <c r="A387" t="str">
         <v>SOUTH EAST WATER</v>
       </c>
-      <c r="B387" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="388">
       <c r="A388" t="str">
         <v>SPEED GAS</v>
       </c>
-      <c r="B388" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="389">
       <c r="A389" t="str">
         <v>STRUAN</v>
       </c>
-      <c r="B389" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="390">
       <c r="A390" t="str">
         <v>STUDIO PHOTO EDITOR</v>
       </c>
-      <c r="B390" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="391">
       <c r="A391" t="str">
         <v>SULTAN AGRO</v>
       </c>
-      <c r="B391" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="392" xml:space="preserve">
       <c r="A392" t="str">
         <v>SUNRISE EGGS PTY LTD</v>
       </c>
       <c r="B392" t="str">
-        <v>AUD</v>
+        <v>Phone: 393576624</v>
       </c>
       <c r="C392" t="str" xml:space="preserve">
         <v xml:space="preserve">19 NORTHPOINT DRIVE_x000d_
 VIC EPPING 3076_x000d_
 Australia</v>
       </c>
-      <c r="D392" t="str">
+      <c r="D392">
+        <v>393576624</v>
+      </c>
+      <c r="E392" t="str">
+        <v>99570665061</v>
+      </c>
+      <c r="F392" t="str">
         <v>19 NORTHPOINT DRIVE</v>
       </c>
-      <c r="E392" t="str">
+      <c r="G392" t="str">
         <v>VIC</v>
       </c>
-      <c r="F392" t="str">
+      <c r="H392" t="str">
+        <v>EPPING</v>
+      </c>
+      <c r="I392" t="str">
+        <v>3076</v>
+      </c>
+      <c r="J392" t="str">
         <v>Australia</v>
-      </c>
-      <c r="G392" t="str">
-        <v>Phone: 393576624</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="str">
         <v>SUNSUPER</v>
       </c>
-      <c r="B393" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="394">
       <c r="A394" t="str">
         <v>SUPAGAS</v>
       </c>
-      <c r="B394" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="395">
       <c r="A395" t="str">
         <v>SUPER</v>
       </c>
-      <c r="B395" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="396">
       <c r="A396" t="str">
         <v>SUPERCHOICE-SUPPER</v>
       </c>
-      <c r="B396" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="397">
       <c r="A397" t="str">
         <v>SUPERIOR FOOD</v>
       </c>
-      <c r="B397" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="398">
       <c r="A398" t="str">
         <v>SYDNEY PACKAGING</v>
       </c>
-      <c r="B398" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="399">
       <c r="A399" t="str">
         <v>TEGRAL</v>
       </c>
-      <c r="B399" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="400">
       <c r="A400" t="str">
         <v>TELEFAX</v>
       </c>
-      <c r="B400" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="401">
       <c r="A401" t="str">
         <v>TELSTRA</v>
       </c>
-      <c r="B401" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="402">
       <c r="A402" t="str">
         <v>TFC FORWARDING</v>
       </c>
-      <c r="B402" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="403" xml:space="preserve">
       <c r="A403" t="str">
         <v>THAI UNION (KING OSCAR)</v>
       </c>
       <c r="B403" t="str">
-        <v>AUD</v>
+        <v>Phone: +4748293000</v>
       </c>
       <c r="C403" t="str" xml:space="preserve">
         <v xml:space="preserve">THAI UNION (KING OSCAR)_x000d__x000d_
@@ -5426,40 +5222,43 @@
 BERGEN 5805_x000d_
 NO</v>
       </c>
-      <c r="D403" t="str" xml:space="preserve">
+      <c r="D403" t="str">
+        <v>+4748293000</v>
+      </c>
+      <c r="F403" t="str" xml:space="preserve">
         <v xml:space="preserve">THAI UNION (KING OSCAR)_x000d__x000d_
 NOSTEGATEN 58._x000d_
 P.O. BOX 400</v>
       </c>
-      <c r="E403" t="str">
+      <c r="G403" t="str">
         <v>BERGEN</v>
       </c>
-      <c r="F403" t="str">
+      <c r="I403" t="str">
+        <v>5805</v>
+      </c>
+      <c r="J403" t="str">
         <v>NO</v>
-      </c>
-      <c r="G403" t="str">
-        <v>Phone: +4748293000</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="str">
         <v>THE EDI CLOUD</v>
       </c>
-      <c r="B404" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="405">
       <c r="A405" t="str">
         <v>THE MAD RUSSIAN PTY. LTD</v>
       </c>
       <c r="B405" t="str">
-        <v>AUD</v>
-      </c>
-      <c r="G405" t="str">
         <v>Phone: 412392683</v>
       </c>
-      <c r="K405" t="str">
+      <c r="D405">
+        <v>412392683</v>
+      </c>
+      <c r="E405" t="str">
+        <v>94014595426</v>
+      </c>
+      <c r="N405" t="str">
         <v>VAL</v>
       </c>
     </row>
@@ -5467,63 +5266,57 @@
       <c r="A406" t="str">
         <v>TICO/LABS FASH/AG&amp;SONS</v>
       </c>
-      <c r="B406" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="407">
       <c r="A407" t="str">
         <v>TIGERPAK</v>
       </c>
-      <c r="B407" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="408">
       <c r="A408" t="str">
         <v>TIKO</v>
       </c>
-      <c r="B408" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="409">
       <c r="A409" t="str">
         <v>TIP TOP BUTCHERY PTY LTD</v>
       </c>
-      <c r="B409" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="410">
       <c r="A410" t="str">
         <v>TONER</v>
       </c>
-      <c r="B410" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="411" xml:space="preserve">
       <c r="A411" t="str">
         <v>TOTAL MIGRATION SERVICES</v>
       </c>
       <c r="B411" t="str">
-        <v>AUD</v>
+        <v>Phone: 415059105</v>
       </c>
       <c r="C411" t="str" xml:space="preserve">
         <v xml:space="preserve">LEVEL 1, 530 LITTLE COLLINS STREET_x000d_
 VIC MELBOURNE 3000</v>
       </c>
-      <c r="D411" t="str">
+      <c r="D411">
+        <v>415059105</v>
+      </c>
+      <c r="E411" t="str">
+        <v>42152786279</v>
+      </c>
+      <c r="F411" t="str">
         <v>LEVEL 1, 530 LITTLE COLLINS STREET</v>
       </c>
-      <c r="E411" t="str">
+      <c r="G411" t="str">
         <v>VIC</v>
       </c>
-      <c r="G411" t="str">
-        <v>Phone: 415059105</v>
-      </c>
-      <c r="K411" t="str">
+      <c r="H411" t="str">
+        <v>MELBOURNE</v>
+      </c>
+      <c r="I411" t="str">
+        <v>3000</v>
+      </c>
+      <c r="N411" t="str">
         <v>NICK</v>
       </c>
     </row>
@@ -5531,50 +5324,47 @@
       <c r="A412" t="str">
         <v>TRANSDIRECT NATIONAL COURIERS</v>
       </c>
-      <c r="B412" t="str">
-        <v>AUD</v>
+      <c r="E412" t="str">
+        <v>50111218627</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="str">
         <v>TRANSWAYS LOGISTICS INTERNATIONAL</v>
       </c>
-      <c r="B413" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="414" xml:space="preserve">
       <c r="A414" t="str">
         <v>TSIMOS</v>
       </c>
-      <c r="B414" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C414" t="str" xml:space="preserve">
         <v xml:space="preserve">PO BOX2598_x000d_
 3192 CHELTENHAM VIC</v>
       </c>
-      <c r="D414" t="str">
+      <c r="E414" t="str">
+        <v>47880114614</v>
+      </c>
+      <c r="F414" t="str">
         <v>PO BOX2598</v>
       </c>
-      <c r="E414">
+      <c r="G414">
         <v>3192</v>
+      </c>
+      <c r="H414" t="str">
+        <v>CHELTENHAM</v>
+      </c>
+      <c r="I414" t="str">
+        <v>VIC</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="str">
         <v>TWINS PANTRY SNACK</v>
       </c>
-      <c r="B415" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="416" xml:space="preserve">
       <c r="A416" t="str">
         <v>UAB "VICIUNAI" ir KO</v>
-      </c>
-      <c r="B416" t="str">
-        <v>AUD</v>
       </c>
       <c r="C416" t="str" xml:space="preserve">
         <v xml:space="preserve">UAB "VICIUNAI" ir KO_x000d__x000d_
@@ -5583,12 +5373,15 @@
 44307_x000d_
 LT</v>
       </c>
-      <c r="D416" t="str" xml:space="preserve">
+      <c r="F416" t="str" xml:space="preserve">
         <v xml:space="preserve">UAB "VICIUNAI" ir KO_x000d__x000d_
 Karaliaus Mindaugo pr. 38 Kaunas_x000d_
 VAT: LT355719610</v>
       </c>
-      <c r="F416" t="str">
+      <c r="I416" t="str">
+        <v>44307</v>
+      </c>
+      <c r="J416" t="str">
         <v>LT</v>
       </c>
     </row>
@@ -5596,22 +5389,19 @@
       <c r="A417" t="str">
         <v>UBP</v>
       </c>
-      <c r="B417" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="418" xml:space="preserve">
       <c r="A418" t="str">
         <v>ULAN</v>
       </c>
-      <c r="B418" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C418" t="str" xml:space="preserve">
         <v xml:space="preserve">ULAN_x000d__x000d_
 None</v>
       </c>
-      <c r="D418" t="str" xml:space="preserve">
+      <c r="E418">
+        <v>0</v>
+      </c>
+      <c r="F418" t="str" xml:space="preserve">
         <v xml:space="preserve">ULAN_x000d__x000d_
 None</v>
       </c>
@@ -5620,40 +5410,46 @@
       <c r="A419" t="str">
         <v>UNIMASTERS LOGISTICS</v>
       </c>
-      <c r="B419" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="420" xml:space="preserve">
       <c r="A420" t="str">
         <v>UNLIMITED BUYING POWER PTY LTD</v>
       </c>
-      <c r="B420" t="str">
-        <v>AUD</v>
+      <c r="B420" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone: 95740113_x000d_
+Fax: 95432034_x000d_
+Mobile: 412310960</v>
       </c>
       <c r="C420" t="str" xml:space="preserve">
         <v xml:space="preserve">2/8-12 COORA ROAD_x000d_
 VIC SOUTH OAKLEIGH 3166_x000d_
 AUS</v>
       </c>
-      <c r="D420" t="str">
+      <c r="D420">
+        <v>95740113</v>
+      </c>
+      <c r="E420" t="str">
+        <v>45480361077</v>
+      </c>
+      <c r="F420" t="str">
         <v>2/8-12 COORA ROAD</v>
       </c>
-      <c r="E420" t="str">
+      <c r="G420" t="str">
         <v>VIC</v>
       </c>
-      <c r="F420" t="str">
+      <c r="H420" t="str">
+        <v>SOUTH OAKLEIGH</v>
+      </c>
+      <c r="I420" t="str">
+        <v>3166</v>
+      </c>
+      <c r="J420" t="str">
         <v>AUS</v>
       </c>
-      <c r="G420" t="str" xml:space="preserve">
-        <v xml:space="preserve">Phone: 95740113_x000d_
-Fax: 95432034_x000d_
-Mobile: 412310960</v>
-      </c>
-      <c r="H420" t="str">
+      <c r="K420" t="str">
         <v>ubpw@tpg.com.au</v>
       </c>
-      <c r="K420" t="str">
+      <c r="N420" t="str">
         <v>Steve</v>
       </c>
     </row>
@@ -5661,13 +5457,10 @@
       <c r="A421" t="str">
         <v>VAGSHAL</v>
       </c>
-      <c r="B421" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C421" t="str">
         <v>ISRAEL</v>
       </c>
-      <c r="F421" t="str">
+      <c r="J421" t="str">
         <v>ISRAEL</v>
       </c>
     </row>
@@ -5675,104 +5468,74 @@
       <c r="A422" t="str">
         <v>VANGUARD LOGISTICS SERVICES</v>
       </c>
-      <c r="B422" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="423">
       <c r="A423" t="str">
         <v>VIC ROADS</v>
       </c>
-      <c r="B423" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="424">
       <c r="A424" t="str">
         <v>VICIUNAI</v>
       </c>
-      <c r="B424" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="425">
       <c r="A425" t="str">
         <v>VICROADS</v>
       </c>
-      <c r="B425" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="426">
       <c r="A426" t="str">
         <v>VICTORIA POLICE</v>
       </c>
-      <c r="B426" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="427">
       <c r="A427" t="str">
         <v>VIVO PACKAGING</v>
       </c>
-      <c r="B427" t="str">
-        <v>AUD</v>
+      <c r="E427" t="str">
+        <v>73162955076</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="str">
         <v>VODAFONE</v>
       </c>
-      <c r="B428" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="429">
       <c r="A429" t="str">
         <v>VOLOVICH PARTNERS</v>
       </c>
-      <c r="B429" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="430">
       <c r="A430" t="str">
         <v>WAGES</v>
       </c>
-      <c r="B430" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="431">
       <c r="A431" t="str">
         <v>WALMAS PTY LTD</v>
       </c>
-      <c r="B431" t="str">
-        <v>AUD</v>
+      <c r="E431" t="str">
+        <v>99122395233</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="str">
         <v>WALTER SCHIKORA</v>
       </c>
-      <c r="B432" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="433">
       <c r="A433" t="str">
         <v>WAREHOUSE UBER</v>
       </c>
-      <c r="B433" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="434" xml:space="preserve">
       <c r="A434" t="str">
         <v>WAVERLEY FORKLIFTS</v>
       </c>
       <c r="B434" t="str">
-        <v>AUD</v>
+        <v>Phone: 03 8540 4040</v>
       </c>
       <c r="C434" t="str" xml:space="preserve">
         <v xml:space="preserve">74 ricketts road_x000d_
@@ -5780,18 +5543,27 @@
 Australia</v>
       </c>
       <c r="D434" t="str">
+        <v>03 8540 4040</v>
+      </c>
+      <c r="E434" t="str">
+        <v>98632889742</v>
+      </c>
+      <c r="F434" t="str">
         <v>74 ricketts road</v>
       </c>
-      <c r="E434" t="str">
+      <c r="G434" t="str">
         <v>VIC</v>
       </c>
-      <c r="F434" t="str">
+      <c r="H434" t="str">
+        <v>MT WAVERLEY</v>
+      </c>
+      <c r="I434" t="str">
+        <v>3149</v>
+      </c>
+      <c r="J434" t="str">
         <v>Australia</v>
       </c>
-      <c r="G434" t="str">
-        <v>Phone: 03 8540 4040</v>
-      </c>
-      <c r="H434" t="str">
+      <c r="K434" t="str">
         <v>hire@waverleyforklift.com.au</v>
       </c>
     </row>
@@ -5799,74 +5571,74 @@
       <c r="A435" t="str">
         <v>WEBCITY AUSTRALIAN  PTY LTD</v>
       </c>
-      <c r="B435" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="436">
       <c r="A436" t="str">
         <v>WESTPAC CC</v>
       </c>
-      <c r="B436" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="437">
       <c r="A437" t="str">
         <v>WFI</v>
       </c>
-      <c r="B437" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="438" xml:space="preserve">
       <c r="A438" t="str">
         <v>WGJ TRADING T/A SARS INVESTMENT PTY LTD</v>
       </c>
       <c r="B438" t="str">
-        <v>AUD</v>
+        <v>Phone: 411148073</v>
       </c>
       <c r="C438" t="str" xml:space="preserve">
         <v xml:space="preserve">po box 461_x000d_
 Boronia</v>
       </c>
-      <c r="D438" t="str">
+      <c r="D438">
+        <v>411148073</v>
+      </c>
+      <c r="E438" t="str">
+        <v>34058509032</v>
+      </c>
+      <c r="F438" t="str">
         <v>po box 461</v>
       </c>
-      <c r="G438" t="str">
-        <v>Phone: 411148073</v>
+      <c r="H438" t="str">
+        <v>Boronia</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="str">
         <v>WORKCOVER INSURANCE</v>
       </c>
-      <c r="B439" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="440" xml:space="preserve">
       <c r="A440" t="str">
         <v>WORLD WIDE EXPORTERS PTY LTD</v>
-      </c>
-      <c r="B440" t="str">
-        <v>AUD</v>
       </c>
       <c r="C440" t="str" xml:space="preserve">
         <v xml:space="preserve">710 / 566 ST.KILDA ROAD_x000d_
 VIC MELBOURNE 3004_x000d_
 Australia</v>
       </c>
-      <c r="D440" t="str">
+      <c r="E440" t="str">
+        <v>89561909029</v>
+      </c>
+      <c r="F440" t="str">
         <v>710 / 566 ST.KILDA ROAD</v>
       </c>
-      <c r="E440" t="str">
+      <c r="G440" t="str">
         <v>VIC</v>
       </c>
-      <c r="F440" t="str">
+      <c r="H440" t="str">
+        <v>MELBOURNE</v>
+      </c>
+      <c r="I440" t="str">
+        <v>3004</v>
+      </c>
+      <c r="J440" t="str">
         <v>Australia</v>
       </c>
-      <c r="J440" t="str">
+      <c r="M440" t="str">
         <v>012-657 321473677</v>
       </c>
     </row>
@@ -5874,58 +5646,55 @@
       <c r="A441" t="str">
         <v>WWT/TIKO</v>
       </c>
-      <c r="B441" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="442">
       <c r="A442" t="str">
         <v>YANGMING</v>
       </c>
-      <c r="B442" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="443">
       <c r="A443" t="str">
         <v>YARRA VALLEY SNACK FOODS PTY LTD</v>
       </c>
       <c r="B443" t="str">
-        <v>AUD</v>
-      </c>
-      <c r="G443" t="str">
         <v>Phone: 97372600</v>
+      </c>
+      <c r="D443">
+        <v>97372600</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="str">
         <v>YOUI</v>
       </c>
-      <c r="B444" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="445" xml:space="preserve">
       <c r="A445" t="str">
         <v>YUMMY AND NATURAL PTY LTD</v>
       </c>
       <c r="B445" t="str">
-        <v>AUD</v>
+        <v>Phone: 289647091</v>
       </c>
       <c r="C445" t="str" xml:space="preserve">
         <v xml:space="preserve">7-19 Coulson street_x000d_
 NSW Erskineville</v>
       </c>
-      <c r="D445" t="str">
+      <c r="D445">
+        <v>289647091</v>
+      </c>
+      <c r="E445" t="str">
+        <v>43344363477</v>
+      </c>
+      <c r="F445" t="str">
         <v>7-19 Coulson street</v>
       </c>
-      <c r="E445" t="str">
+      <c r="G445" t="str">
         <v>NSW</v>
       </c>
-      <c r="G445" t="str">
-        <v>Phone: 289647091</v>
-      </c>
       <c r="H445" t="str">
+        <v>Erskineville</v>
+      </c>
+      <c r="K445" t="str">
         <v>accounts@yummyandnatural.com</v>
       </c>
     </row>
@@ -5933,53 +5702,50 @@
       <c r="A446" t="str">
         <v>ZAHARNI IZDELIA</v>
       </c>
-      <c r="B446" t="str">
-        <v>AUD</v>
-      </c>
     </row>
     <row r="447">
       <c r="A447" t="str">
         <v>ZEBROV VYACHESLAV</v>
       </c>
-      <c r="B447" t="str">
-        <v>AUD</v>
+      <c r="E447" t="str">
+        <v>23967301178</v>
       </c>
     </row>
     <row r="448" xml:space="preserve">
       <c r="A448" t="str">
         <v>ZING AUSTRALIA PTY LTD</v>
       </c>
-      <c r="B448" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C448" t="str" xml:space="preserve">
         <v xml:space="preserve">UNIT 11, 2 SARTON ROAD_x000d_
 VIC CLAYTON 3168</v>
       </c>
-      <c r="D448" t="str">
+      <c r="F448" t="str">
         <v>UNIT 11, 2 SARTON ROAD</v>
       </c>
-      <c r="E448" t="str">
+      <c r="G448" t="str">
         <v>VIC</v>
+      </c>
+      <c r="H448" t="str">
+        <v>CLAYTON</v>
+      </c>
+      <c r="I448" t="str">
+        <v>3168</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="str">
         <v>ZIV LTD</v>
       </c>
-      <c r="B449" t="str">
-        <v>AUD</v>
-      </c>
       <c r="C449" t="str">
         <v>Bulgaria</v>
       </c>
-      <c r="F449" t="str">
+      <c r="J449" t="str">
         <v>Bulgaria</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L449"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O449"/>
   </ignoredErrors>
 </worksheet>
 </file>